--- a/informe/tables/parameters_knn.xlsx
+++ b/informe/tables/parameters_knn.xlsx
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.236594820022583</v>
+        <v>0.1912644386291504</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02803440992761689</v>
+        <v>0.02374932102076493</v>
       </c>
       <c r="D2" t="n">
-        <v>76.37218322753907</v>
+        <v>69.74210052490234</v>
       </c>
       <c r="E2" t="n">
-        <v>2.385409700865483</v>
+        <v>2.025955401867785</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -706,121 +706,121 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.8944444444444445</v>
+        <v>0.8935185185185185</v>
       </c>
       <c r="K2" t="n">
+        <v>0.8796296296296297</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.8768518518518519</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.9018518518518519</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.8870370370370372</v>
       </c>
-      <c r="L2" t="n">
-        <v>0.8824074074074074</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.8824074074074074</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.8972222222222221</v>
-      </c>
       <c r="O2" t="n">
-        <v>0.8887037037037038</v>
+        <v>0.8877777777777778</v>
       </c>
       <c r="P2" t="n">
-        <v>0.006125124225385614</v>
+        <v>0.009136219543365933</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8967748675188513</v>
+        <v>0.8950751252566641</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8893967209153474</v>
+        <v>0.8836035804697705</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8873136323159004</v>
+        <v>0.8795774388446801</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8834470060689573</v>
+        <v>0.9047606316243662</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9040121066205434</v>
+        <v>0.8924087907666154</v>
       </c>
       <c r="W2" t="n">
-        <v>0.89218886668792</v>
+        <v>0.8910851133924194</v>
       </c>
       <c r="X2" t="n">
-        <v>0.007332182777379058</v>
+        <v>0.008866702022166374</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.894552834863128</v>
+        <v>0.893424572874942</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8869312948260316</v>
+        <v>0.8788459083365249</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.882160548735221</v>
+        <v>0.8766809014340892</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.8818070989863367</v>
+        <v>0.9013987582747477</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.8975508400377579</v>
+        <v>0.8867420248317943</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.8886005234896951</v>
+        <v>0.8874184331504196</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.00641791855120513</v>
+        <v>0.009173478099717185</v>
       </c>
       <c r="AG2" t="n">
         <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.8944444444444445</v>
+        <v>0.8935185185185185</v>
       </c>
       <c r="AI2" t="n">
+        <v>0.8796296296296297</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.8768518518518519</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.9018518518518519</v>
+      </c>
+      <c r="AL2" t="n">
         <v>0.8870370370370371</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>0.8824074074074074</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.8824074074074074</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.8972222222222223</v>
-      </c>
       <c r="AM2" t="n">
-        <v>0.8887037037037038</v>
+        <v>0.8877777777777778</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00612512422538565</v>
+        <v>0.009136219543365935</v>
       </c>
       <c r="AO2" t="n">
         <v>1</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.9755883487654322</v>
+        <v>0.9800880915637861</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.9783307613168725</v>
+        <v>0.9762127057613169</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.9760866769547324</v>
+        <v>0.972477494855967</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.9776228137860082</v>
+        <v>0.9809561471193415</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9797614454732511</v>
+        <v>0.978545524691358</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.9774780092592593</v>
+        <v>0.9776559927983539</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.001514520236223371</v>
+        <v>0.003049501872319666</v>
       </c>
       <c r="AW2" t="n">
         <v>1</v>
@@ -831,16 +831,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2167626857757568</v>
+        <v>0.2324596405029297</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01798382464208313</v>
+        <v>0.02874055347300697</v>
       </c>
       <c r="D3" t="n">
-        <v>3.522982025146484</v>
+        <v>3.442443561553955</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2974366080159569</v>
+        <v>0.2420875844163543</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -857,121 +857,121 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.8425925925925926</v>
+        <v>0.8555555555555555</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8388888888888889</v>
+        <v>0.8314814814814815</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8083333333333332</v>
+        <v>0.8101851851851851</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8092592592592592</v>
+        <v>0.8453703703703704</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8277777777777778</v>
+        <v>0.8314814814814815</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8253703703703703</v>
+        <v>0.8348148148148148</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01438735155522598</v>
+        <v>0.01529992782647027</v>
       </c>
       <c r="Q3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8472904886908251</v>
+        <v>0.8604329787308083</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8465959059785044</v>
+        <v>0.8400590148376316</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8216602094992108</v>
+        <v>0.8164092513185194</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8167807042562424</v>
+        <v>0.8546184964424762</v>
       </c>
       <c r="V3" t="n">
-        <v>0.837338435023219</v>
+        <v>0.8394873677245794</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8339331486896004</v>
+        <v>0.842201421810803</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01261103735217984</v>
+        <v>0.0152562476779882</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.8433675851918564</v>
+        <v>0.855833026010731</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.8391336528667172</v>
+        <v>0.830686107987455</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.8085591089251332</v>
+        <v>0.8106773817691794</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.8089646200423731</v>
+        <v>0.8454388039127227</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.8277219010206457</v>
+        <v>0.8317197892596324</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.8255493736093451</v>
+        <v>0.8348710217879441</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.01463191256952439</v>
+        <v>0.01525686486402442</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.8425925925925926</v>
+        <v>0.8555555555555555</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.8388888888888889</v>
+        <v>0.8314814814814815</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.8101851851851852</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.8092592592592592</v>
+        <v>0.8453703703703703</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.8277777777777777</v>
+        <v>0.8314814814814815</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.8253703703703703</v>
+        <v>0.8348148148148148</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.01438735155522595</v>
+        <v>0.01529992782647023</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.9559304269547325</v>
+        <v>0.9632233796296297</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.9611850565843622</v>
+        <v>0.9591698816872428</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.9503626543209877</v>
+        <v>0.9504243827160495</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.9523263888888889</v>
+        <v>0.9564210390946503</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9557143775720164</v>
+        <v>0.9503485082304527</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.9551037808641976</v>
+        <v>0.9559174382716049</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.003694056674348618</v>
+        <v>0.005007902200072628</v>
       </c>
       <c r="AW3" t="n">
         <v>11</v>
@@ -982,16 +982,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2259219646453857</v>
+        <v>0.2205142498016358</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0276482853905105</v>
+        <v>0.01207645145415832</v>
       </c>
       <c r="D4" t="n">
-        <v>73.46876783370972</v>
+        <v>71.9630802154541</v>
       </c>
       <c r="E4" t="n">
-        <v>2.997690352459328</v>
+        <v>3.101052860476929</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -1008,121 +1008,121 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.8509259259259259</v>
+        <v>0.8342592592592593</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8416666666666668</v>
+        <v>0.8055555555555555</v>
       </c>
       <c r="L4" t="n">
+        <v>0.8268518518518518</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.8185185185185184</v>
-      </c>
       <c r="N4" t="n">
-        <v>0.813888888888889</v>
+        <v>0.8425925925925926</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8316666666666667</v>
+        <v>0.8285185185185184</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01387530199624384</v>
+        <v>0.01252432475474886</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8570509829361127</v>
+        <v>0.8416067378070009</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8507871336332232</v>
+        <v>0.8131257386465688</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8415483850334508</v>
+        <v>0.8340803008045411</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8249033337772333</v>
+        <v>0.8470414997317012</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8299703451590262</v>
+        <v>0.8518969119311247</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8408520361078093</v>
+        <v>0.8375502377841872</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01211915217287146</v>
+        <v>0.01357175689169282</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.8513415596090206</v>
+        <v>0.8342306056668503</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8413385543463369</v>
+        <v>0.8036918401776564</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.8323083908035076</v>
+        <v>0.8260294883565669</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.8172902135037803</v>
+        <v>0.8318557119197122</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.812777862195294</v>
+        <v>0.8426686507066096</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.831011316091588</v>
+        <v>0.8276952593654791</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.01443870182163328</v>
+        <v>0.01313896107574704</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.850925925925926</v>
+        <v>0.8342592592592593</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="AJ4" t="n">
+        <v>0.8268518518518518</v>
+      </c>
+      <c r="AK4" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="AK4" t="n">
-        <v>0.8185185185185185</v>
-      </c>
       <c r="AL4" t="n">
-        <v>0.8138888888888889</v>
+        <v>0.8425925925925926</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.8316666666666667</v>
+        <v>0.8285185185185184</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.01387530199624386</v>
+        <v>0.01252432475474881</v>
       </c>
       <c r="AO4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.9582336676954734</v>
+        <v>0.9586033950617283</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9604803240740741</v>
+        <v>0.9514197530864198</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.9585847479423869</v>
+        <v>0.9564152520576132</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.9547100051440328</v>
+        <v>0.9660069444444445</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.9544077932098766</v>
+        <v>0.9623212448559672</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9572833076131687</v>
+        <v>0.9589533179012346</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.002354073667031488</v>
+        <v>0.004988294346220357</v>
       </c>
       <c r="AW4" t="n">
         <v>6</v>
@@ -1133,16 +1133,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2271814823150635</v>
+        <v>0.2305367946624756</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0220888489867892</v>
+        <v>0.01952456688989084</v>
       </c>
       <c r="D5" t="n">
-        <v>3.774840927124024</v>
+        <v>3.778494691848755</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2497133678145983</v>
+        <v>0.1654915606320488</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -1159,121 +1159,121 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.762037037037037</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7444444444444445</v>
+        <v>0.737962962962963</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7435185185185186</v>
+        <v>0.7509259259259259</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7518518518518519</v>
+        <v>0.7481481481481481</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7287037037037037</v>
+        <v>0.7314814814814815</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7461111111111112</v>
+        <v>0.7442592592592592</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01094630867120859</v>
+        <v>0.008185939298259354</v>
       </c>
       <c r="Q5" t="n">
         <v>31</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7825453640049845</v>
+        <v>0.7687888023019269</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7692753681174658</v>
+        <v>0.7572826203652193</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7620166300821776</v>
+        <v>0.7650525913237778</v>
       </c>
       <c r="U5" t="n">
-        <v>0.7705232695487835</v>
+        <v>0.7704526474063957</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7474765515962482</v>
+        <v>0.7529529862105</v>
       </c>
       <c r="W5" t="n">
-        <v>0.7663674366699319</v>
+        <v>0.7629059295215639</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01151735561585139</v>
+        <v>0.006735755136543216</v>
       </c>
       <c r="Y5" t="n">
         <v>31</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.7633273994304197</v>
+        <v>0.7507554315283019</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.7420741652909778</v>
+        <v>0.7358851146922948</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.7406768257514527</v>
+        <v>0.7493834521034647</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.7502579935230796</v>
+        <v>0.746070510656188</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.7266585952167887</v>
+        <v>0.729482433116913</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.7445989958425437</v>
+        <v>0.7423153884194325</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.01205316155910008</v>
+        <v>0.008262275194357382</v>
       </c>
       <c r="AG5" t="n">
         <v>26</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.7620370370370371</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.7444444444444445</v>
+        <v>0.7379629629629629</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.7435185185185185</v>
+        <v>0.7509259259259259</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.7518518518518519</v>
+        <v>0.7481481481481481</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.7287037037037037</v>
+        <v>0.7314814814814815</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.7461111111111112</v>
+        <v>0.7442592592592592</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.01094630867120863</v>
+        <v>0.008185939298259372</v>
       </c>
       <c r="AO5" t="n">
         <v>31</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.9230484825102879</v>
+        <v>0.9262770061728395</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.9270318930041151</v>
+        <v>0.9178575102880658</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.9179809670781892</v>
+        <v>0.9187506430041151</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.9172935956790124</v>
+        <v>0.9247022890946504</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.9140412808641974</v>
+        <v>0.918966049382716</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.9198792438271605</v>
+        <v>0.9213106995884773</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.004595112764619743</v>
+        <v>0.003468223496698309</v>
       </c>
       <c r="AW5" t="n">
         <v>31</v>
@@ -1284,16 +1284,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2090263366699219</v>
+        <v>0.228987979888916</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008168271709566783</v>
+        <v>0.01099144396718824</v>
       </c>
       <c r="D6" t="n">
-        <v>72.73322615623474</v>
+        <v>76.67617421150207</v>
       </c>
       <c r="E6" t="n">
-        <v>1.05002203513727</v>
+        <v>1.789291625850479</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -1310,121 +1310,121 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.7981481481481482</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="K6" t="n">
+        <v>0.7666666666666666</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8009259259259259</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.7925925925925926</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.8037037037037038</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.7777777777777777</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.7703703703703703</v>
-      </c>
       <c r="O6" t="n">
-        <v>0.7885185185185185</v>
+        <v>0.7903703703703704</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01252706261132435</v>
+        <v>0.01243087884950995</v>
       </c>
       <c r="Q6" t="n">
         <v>16</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8089349338258923</v>
+        <v>0.8133160953905397</v>
       </c>
       <c r="S6" t="n">
-        <v>0.809135238694875</v>
+        <v>0.7817227046102883</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8134620504596292</v>
+        <v>0.81644293537923</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7934970884754078</v>
+        <v>0.8121742112482853</v>
       </c>
       <c r="V6" t="n">
-        <v>0.7899103228151479</v>
+        <v>0.8064613421963275</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8029879268541904</v>
+        <v>0.8060234577649341</v>
       </c>
       <c r="X6" t="n">
-        <v>0.009422986157521985</v>
+        <v>0.01257217715723458</v>
       </c>
       <c r="Y6" t="n">
         <v>16</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7968394030681397</v>
+        <v>0.7988367912950073</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.7912515786871811</v>
+        <v>0.7626821671340634</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.8020169177952697</v>
+        <v>0.7996737775046751</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7731601810024422</v>
+        <v>0.7887895637676147</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.7669347252646052</v>
+        <v>0.7910452227263708</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.7860405611635276</v>
+        <v>0.7882055044855463</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.01363782108570043</v>
+        <v>0.01344909974500998</v>
       </c>
       <c r="AG6" t="n">
         <v>16</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.7981481481481482</v>
+        <v>0.8</v>
       </c>
       <c r="AI6" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.8009259259259259</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="AL6" t="n">
         <v>0.7925925925925926</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>0.8037037037037037</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.7703703703703704</v>
-      </c>
       <c r="AM6" t="n">
-        <v>0.7885185185185184</v>
+        <v>0.7903703703703704</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.01252706261132427</v>
+        <v>0.01243087884950992</v>
       </c>
       <c r="AO6" t="n">
         <v>16</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.9458802726337447</v>
+        <v>0.9440586419753085</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.942306455761317</v>
+        <v>0.9343634259259259</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.9456230709876543</v>
+        <v>0.9431764403292182</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.9426170267489713</v>
+        <v>0.9524710648148148</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.9373849022633746</v>
+        <v>0.9458584104938271</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.9427623456790124</v>
+        <v>0.943985596707819</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.003067607167921673</v>
+        <v>0.005809592768584644</v>
       </c>
       <c r="AW6" t="n">
         <v>16</v>
@@ -1435,16 +1435,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2113727569580078</v>
+        <v>0.2420620918273926</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01348201738566459</v>
+        <v>0.01141442793769618</v>
       </c>
       <c r="D7" t="n">
-        <v>3.370358943939209</v>
+        <v>3.470314979553223</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2127135855422169</v>
+        <v>0.09682369888593773</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -1461,121 +1461,121 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.7277777777777779</v>
+        <v>0.7240740740740742</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7185185185185184</v>
+        <v>0.7046296296296296</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7185185185185184</v>
+        <v>0.7388888888888889</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7314814814814814</v>
+        <v>0.7268518518518517</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7138888888888889</v>
+        <v>0.7175925925925926</v>
       </c>
       <c r="O7" t="n">
-        <v>0.722037037037037</v>
+        <v>0.7224074074074074</v>
       </c>
       <c r="P7" t="n">
-        <v>0.006531552625388297</v>
+        <v>0.0112552380733502</v>
       </c>
       <c r="Q7" t="n">
         <v>36</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7582029989053084</v>
+        <v>0.7485581699108922</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7434540866031637</v>
+        <v>0.7329537810068051</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7490851044467631</v>
+        <v>0.7557894933010223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7569774104249642</v>
+        <v>0.755348453467933</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7393727805494433</v>
+        <v>0.7477794831586778</v>
       </c>
       <c r="W7" t="n">
-        <v>0.7494184761859286</v>
+        <v>0.7480858761690661</v>
       </c>
       <c r="X7" t="n">
-        <v>0.007360793528821919</v>
+        <v>0.008263025934763754</v>
       </c>
       <c r="Y7" t="n">
         <v>36</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.7265445862978229</v>
+        <v>0.7196912301723765</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.7124398278350669</v>
+        <v>0.6994449234088074</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.7140328733648952</v>
+        <v>0.7362755996176639</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.7246188866277966</v>
+        <v>0.7197379207328581</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.7088721331269549</v>
+        <v>0.7121016962205182</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.7173016614505072</v>
+        <v>0.7174502740304448</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.006990748077834308</v>
+        <v>0.01197871471341451</v>
       </c>
       <c r="AG7" t="n">
         <v>36</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.7277777777777777</v>
+        <v>0.7240740740740741</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.7185185185185186</v>
+        <v>0.7046296296296296</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.7185185185185186</v>
+        <v>0.7388888888888889</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.7314814814814815</v>
+        <v>0.7268518518518519</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.7138888888888889</v>
+        <v>0.7175925925925926</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.722037037037037</v>
+        <v>0.7224074074074075</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.006531552625388286</v>
+        <v>0.0112552380733502</v>
       </c>
       <c r="AO7" t="n">
         <v>36</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.9092734053497943</v>
+        <v>0.9104668209876543</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.9085931069958848</v>
+        <v>0.8952096193415637</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.9042496141975308</v>
+        <v>0.9063168724279835</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.9045743312757203</v>
+        <v>0.9114493312757203</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.8967959104938271</v>
+        <v>0.9041087962962964</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.9046972736625515</v>
+        <v>0.9055102880658437</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.004444447149675085</v>
+        <v>0.005806168900996423</v>
       </c>
       <c r="AW7" t="n">
         <v>36</v>
@@ -1586,16 +1586,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2681051254272461</v>
+        <v>0.2321994781494141</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03464106399698692</v>
+        <v>0.02587133862530023</v>
       </c>
       <c r="D8" t="n">
-        <v>85.65144333839416</v>
+        <v>68.87384943962097</v>
       </c>
       <c r="E8" t="n">
-        <v>5.724496928539202</v>
+        <v>1.829168020102424</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -1612,121 +1612,121 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.7907407407407407</v>
+        <v>0.7787037037037038</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7574074074074074</v>
+        <v>0.736111111111111</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7749999999999999</v>
+        <v>0.7787037037037036</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7537037037037037</v>
+        <v>0.7824074074074074</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7611111111111111</v>
+        <v>0.7601851851851852</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7675925925925926</v>
+        <v>0.7672222222222222</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01363345356985627</v>
+        <v>0.01738769569526743</v>
       </c>
       <c r="Q8" t="n">
         <v>21</v>
       </c>
       <c r="R8" t="n">
-        <v>0.8048833684358945</v>
+        <v>0.7963694779116466</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7812398294156226</v>
+        <v>0.7493297903153016</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7905059286895711</v>
+        <v>0.7976825262479093</v>
       </c>
       <c r="U8" t="n">
-        <v>0.7714315125395194</v>
+        <v>0.8016339869281045</v>
       </c>
       <c r="V8" t="n">
-        <v>0.7863795736227243</v>
+        <v>0.7808634142596441</v>
       </c>
       <c r="W8" t="n">
-        <v>0.7868880425406664</v>
+        <v>0.7851758391325212</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01102711227914807</v>
+        <v>0.01926718258942765</v>
       </c>
       <c r="Y8" t="n">
         <v>21</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.7883481556377241</v>
+        <v>0.7764921558258417</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.7554519671212621</v>
+        <v>0.7315659404680925</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.7714927592161777</v>
+        <v>0.7744737442882</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.7481664061579375</v>
+        <v>0.7784627525252525</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.7564103633383561</v>
+        <v>0.7561769336627503</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.7639739302942915</v>
+        <v>0.7634343053540273</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.01435510271777827</v>
+        <v>0.01781287747486256</v>
       </c>
       <c r="AG8" t="n">
         <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.7907407407407407</v>
+        <v>0.7787037037037037</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.7574074074074074</v>
+        <v>0.7361111111111112</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.775</v>
+        <v>0.7787037037037037</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.7537037037037037</v>
+        <v>0.7824074074074074</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.7611111111111111</v>
+        <v>0.7601851851851852</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.7675925925925926</v>
+        <v>0.7672222222222222</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.01363345356985628</v>
+        <v>0.01738769569526739</v>
       </c>
       <c r="AO8" t="n">
         <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.937854938271605</v>
+        <v>0.9362660751028806</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.9316685956790124</v>
+        <v>0.9211863425925926</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.9371707818930042</v>
+        <v>0.9360776748971192</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.929571116255144</v>
+        <v>0.9425758744855969</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.9304417438271604</v>
+        <v>0.9338445216049384</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.9333414351851852</v>
+        <v>0.9339900977366256</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.003477283800303015</v>
+        <v>0.007031514089502555</v>
       </c>
       <c r="AW8" t="n">
         <v>21</v>
@@ -1737,16 +1737,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2571278572082519</v>
+        <v>0.2308523178100586</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01704257568435271</v>
+        <v>0.006607769963028516</v>
       </c>
       <c r="D9" t="n">
-        <v>4.294254350662231</v>
+        <v>3.834038352966309</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5005645456706037</v>
+        <v>0.2423988790418929</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -1763,121 +1763,121 @@
         </is>
       </c>
       <c r="J9" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.6833333333333335</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.7185185185185184</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.7129629629629629</v>
       </c>
-      <c r="K9" t="n">
-        <v>0.6888888888888888</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.7157407407407407</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.7037037037037037</v>
-      </c>
       <c r="N9" t="n">
-        <v>0.6833333333333332</v>
+        <v>0.6981481481481481</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7009259259259258</v>
+        <v>0.7025925925925927</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01285670737608134</v>
+        <v>0.01231725122097467</v>
       </c>
       <c r="Q9" t="n">
         <v>41</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7516752085717603</v>
+        <v>0.7261500559061534</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7269602773308819</v>
+        <v>0.7178436628724763</v>
       </c>
       <c r="T9" t="n">
-        <v>0.7508839735541143</v>
+        <v>0.7480445258136795</v>
       </c>
       <c r="U9" t="n">
-        <v>0.7385433118278844</v>
+        <v>0.7541955354267255</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7187312367228685</v>
+        <v>0.7381730118959465</v>
       </c>
       <c r="W9" t="n">
-        <v>0.7373588016015018</v>
+        <v>0.7368813583829963</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01299544789283209</v>
+        <v>0.01344366100275777</v>
       </c>
       <c r="Y9" t="n">
         <v>41</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.7071587900292569</v>
+        <v>0.6903447891450311</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.6810202267170483</v>
+        <v>0.6725570457762785</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.7040426854814537</v>
+        <v>0.7117676893296698</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.6954025759305543</v>
+        <v>0.7026479249889722</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.6758822835680568</v>
+        <v>0.6888953993875044</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.692701312345274</v>
+        <v>0.6932425697254913</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.01236341151152773</v>
+        <v>0.01331785784031973</v>
       </c>
       <c r="AG9" t="n">
         <v>41</v>
       </c>
       <c r="AH9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.6833333333333333</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.7185185185185186</v>
+      </c>
+      <c r="AK9" t="n">
         <v>0.7129629629629629</v>
       </c>
-      <c r="AI9" t="n">
-        <v>0.6888888888888889</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0.7157407407407408</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0.7037037037037037</v>
-      </c>
       <c r="AL9" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6981481481481482</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.700925925925926</v>
+        <v>0.7025925925925927</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.01285670737608132</v>
+        <v>0.01231725122097473</v>
       </c>
       <c r="AO9" t="n">
         <v>41</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.903047839506173</v>
+        <v>0.9026613940329219</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.8925495113168723</v>
+        <v>0.8887088477366255</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.9016467335390946</v>
+        <v>0.899343492798354</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.8966512345679013</v>
+        <v>0.9009979423868312</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.8823270318930042</v>
+        <v>0.8929539609053498</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.8952444701646091</v>
+        <v>0.8969331275720165</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.007456320140326931</v>
+        <v>0.005265323595414389</v>
       </c>
       <c r="AW9" t="n">
         <v>41</v>
@@ -1888,16 +1888,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2699872493743897</v>
+        <v>0.2396349906921387</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0226910530907837</v>
+        <v>0.01078961794210188</v>
       </c>
       <c r="D10" t="n">
-        <v>89.68879370689392</v>
+        <v>70.67629952430725</v>
       </c>
       <c r="E10" t="n">
-        <v>3.149770425754583</v>
+        <v>3.459622402813843</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -1914,121 +1914,121 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.762037037037037</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7277777777777779</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L10" t="n">
-        <v>0.773148148148148</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7324074074074075</v>
+        <v>0.762962962962963</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7435185185185186</v>
+        <v>0.75</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7477777777777778</v>
+        <v>0.745925925925926</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01732842602265115</v>
+        <v>0.01366611461295933</v>
       </c>
       <c r="Q10" t="n">
         <v>26</v>
       </c>
       <c r="R10" t="n">
-        <v>0.7813981618937653</v>
+        <v>0.7774139119599887</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7547027678141663</v>
+        <v>0.7399304975917419</v>
       </c>
       <c r="T10" t="n">
-        <v>0.793337196624481</v>
+        <v>0.7654061942453406</v>
       </c>
       <c r="U10" t="n">
-        <v>0.7546655359391462</v>
+        <v>0.7933287735640276</v>
       </c>
       <c r="V10" t="n">
-        <v>0.7769187125113209</v>
+        <v>0.7725480931689576</v>
       </c>
       <c r="W10" t="n">
-        <v>0.772204474956576</v>
+        <v>0.7697254941060112</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01527916211754132</v>
+        <v>0.01749623847752673</v>
       </c>
       <c r="Y10" t="n">
         <v>26</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.759299236911177</v>
+        <v>0.7486513108300558</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.7243585156992781</v>
+        <v>0.7137361177973943</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.7690142738754749</v>
+        <v>0.7371380319453938</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.7252018565068122</v>
+        <v>0.7567353276104694</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.7388562225267753</v>
+        <v>0.7445360116441092</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.7433460211039036</v>
+        <v>0.7401593599654845</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0180180945530815</v>
+        <v>0.01465160170389852</v>
       </c>
       <c r="AG10" t="n">
         <v>31</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.7620370370370371</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.7277777777777777</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.7731481481481481</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.7324074074074074</v>
+        <v>0.762962962962963</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.7435185185185185</v>
+        <v>0.75</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.7477777777777778</v>
+        <v>0.745925925925926</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.01732842602265125</v>
+        <v>0.01366611461295933</v>
       </c>
       <c r="AO10" t="n">
         <v>26</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.9274697788065843</v>
+        <v>0.9304963991769547</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.9222993827160494</v>
+        <v>0.9120248199588478</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.9290689300411522</v>
+        <v>0.9265354938271605</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.9215052726337448</v>
+        <v>0.9313271604938271</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.920889274691358</v>
+        <v>0.9264737654320987</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.9242465277777777</v>
+        <v>0.9253715277777778</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.003353264460995498</v>
+        <v>0.006963307006317976</v>
       </c>
       <c r="AW10" t="n">
         <v>26</v>
@@ -2039,16 +2039,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3277946949005127</v>
+        <v>0.2107408046722412</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02234694355775756</v>
+        <v>0.005984717983738494</v>
       </c>
       <c r="D11" t="n">
-        <v>5.422311496734619</v>
+        <v>3.656102657318115</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1360578620686567</v>
+        <v>0.2384797584725303</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -2065,121 +2065,121 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6722222222222222</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6731481481481482</v>
+        <v>0.6722222222222222</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7092592592592593</v>
+        <v>0.688888888888889</v>
       </c>
       <c r="M11" t="n">
-        <v>0.688888888888889</v>
+        <v>0.687962962962963</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6638888888888889</v>
+        <v>0.6870370370370371</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6887037037037038</v>
+        <v>0.6816666666666666</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01825178270790175</v>
+        <v>0.007733560376970842</v>
       </c>
       <c r="Q11" t="n">
         <v>46</v>
       </c>
       <c r="R11" t="n">
-        <v>0.744028433639785</v>
+        <v>0.7060196103779638</v>
       </c>
       <c r="S11" t="n">
-        <v>0.7241766433845239</v>
+        <v>0.7066478428978429</v>
       </c>
       <c r="T11" t="n">
-        <v>0.7445346184047046</v>
+        <v>0.72206970758899</v>
       </c>
       <c r="U11" t="n">
-        <v>0.7329642258673984</v>
+        <v>0.7360964842439991</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7073659964277503</v>
+        <v>0.7315388404976783</v>
       </c>
       <c r="W11" t="n">
-        <v>0.7306139835448324</v>
+        <v>0.7204744971212947</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0138648003127501</v>
+        <v>0.01240266898877924</v>
       </c>
       <c r="Y11" t="n">
         <v>46</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.7002741469913</v>
+        <v>0.6588697788681112</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.6641263728611273</v>
+        <v>0.660753842228558</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.6974666003489407</v>
+        <v>0.6797170204555553</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.6782835702044007</v>
+        <v>0.6773815852763221</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.6553007426235504</v>
+        <v>0.6770327410029556</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.6790902866058637</v>
+        <v>0.6707509935663004</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.01775926100046044</v>
+        <v>0.008999122546514922</v>
       </c>
       <c r="AG11" t="n">
         <v>46</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6722222222222223</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.6731481481481482</v>
+        <v>0.6722222222222223</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.7092592592592593</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.6888888888888889</v>
+        <v>0.687962962962963</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.6638888888888889</v>
+        <v>0.687037037037037</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.6887037037037038</v>
+        <v>0.6816666666666666</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.01825178270790175</v>
+        <v>0.007733560376970751</v>
       </c>
       <c r="AO11" t="n">
         <v>46</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.8962229938271604</v>
+        <v>0.8929391718106996</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.884710005144033</v>
+        <v>0.8792791923868313</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.8975456532921812</v>
+        <v>0.88943158436214</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.8848784722222223</v>
+        <v>0.895985725308642</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.8755838477366256</v>
+        <v>0.8835210905349795</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.8877881944444445</v>
+        <v>0.8882313528806585</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.008163842908045844</v>
+        <v>0.006100199264145799</v>
       </c>
       <c r="AW11" t="n">
         <v>46</v>
@@ -2190,16 +2190,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2936652183532715</v>
+        <v>0.2234134674072266</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07089050971998494</v>
+        <v>0.01229313909648792</v>
       </c>
       <c r="D12" t="n">
-        <v>77.06426401138306</v>
+        <v>78.89193921089172</v>
       </c>
       <c r="E12" t="n">
-        <v>1.342313747255479</v>
+        <v>1.613186910978344</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -2216,121 +2216,121 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.8944444444444445</v>
+        <v>0.8935185185185185</v>
       </c>
       <c r="K12" t="n">
+        <v>0.8796296296296297</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.8768518518518519</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.9018518518518519</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.8870370370370372</v>
       </c>
-      <c r="L12" t="n">
-        <v>0.8824074074074074</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.8824074074074074</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.8972222222222221</v>
-      </c>
       <c r="O12" t="n">
-        <v>0.8887037037037038</v>
+        <v>0.8877777777777778</v>
       </c>
       <c r="P12" t="n">
-        <v>0.006125124225385614</v>
+        <v>0.009136219543365933</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>0.8967748675188513</v>
+        <v>0.8950751252566641</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8893967209153474</v>
+        <v>0.8836035804697705</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8873136323159004</v>
+        <v>0.8795774388446801</v>
       </c>
       <c r="U12" t="n">
-        <v>0.8834470060689573</v>
+        <v>0.9047606316243662</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9040121066205434</v>
+        <v>0.8924087907666154</v>
       </c>
       <c r="W12" t="n">
-        <v>0.89218886668792</v>
+        <v>0.8910851133924194</v>
       </c>
       <c r="X12" t="n">
-        <v>0.007332182777379058</v>
+        <v>0.008866702022166374</v>
       </c>
       <c r="Y12" t="n">
         <v>1</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.894552834863128</v>
+        <v>0.893424572874942</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.8869312948260316</v>
+        <v>0.8788459083365249</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.882160548735221</v>
+        <v>0.8766809014340892</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.8818070989863367</v>
+        <v>0.9013987582747477</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.8975508400377579</v>
+        <v>0.8867420248317943</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.8886005234896951</v>
+        <v>0.8874184331504196</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.00641791855120513</v>
+        <v>0.009173478099717185</v>
       </c>
       <c r="AG12" t="n">
         <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.8944444444444445</v>
+        <v>0.8935185185185185</v>
       </c>
       <c r="AI12" t="n">
+        <v>0.8796296296296297</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.8768518518518519</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.9018518518518519</v>
+      </c>
+      <c r="AL12" t="n">
         <v>0.8870370370370371</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>0.8824074074074074</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0.8824074074074074</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0.8972222222222223</v>
-      </c>
       <c r="AM12" t="n">
-        <v>0.8887037037037038</v>
+        <v>0.8877777777777778</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.00612512422538565</v>
+        <v>0.009136219543365935</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.9755883487654322</v>
+        <v>0.9800880915637861</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.9783307613168725</v>
+        <v>0.9762127057613169</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.9760866769547324</v>
+        <v>0.972477494855967</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.9776228137860082</v>
+        <v>0.9809561471193415</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.9797614454732511</v>
+        <v>0.978545524691358</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.9774780092592593</v>
+        <v>0.9776559927983539</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.001514520236223371</v>
+        <v>0.003049501872319666</v>
       </c>
       <c r="AW12" t="n">
         <v>1</v>
@@ -2341,16 +2341,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2501804828643799</v>
+        <v>0.3176617622375488</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0119772756815573</v>
+        <v>0.1607725570856706</v>
       </c>
       <c r="D13" t="n">
-        <v>3.887008666992188</v>
+        <v>4.017849969863891</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1185356887490231</v>
+        <v>0.3570431429862294</v>
       </c>
       <c r="F13" t="n">
         <v>11</v>
@@ -2367,121 +2367,121 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.8425925925925926</v>
+        <v>0.8555555555555555</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8388888888888889</v>
+        <v>0.8314814814814815</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8083333333333332</v>
+        <v>0.8101851851851851</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8092592592592592</v>
+        <v>0.8453703703703704</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8277777777777778</v>
+        <v>0.8314814814814815</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8253703703703703</v>
+        <v>0.8348148148148148</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01438735155522598</v>
+        <v>0.01529992782647027</v>
       </c>
       <c r="Q13" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R13" t="n">
-        <v>0.8472904886908251</v>
+        <v>0.8604329787308083</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8465959059785044</v>
+        <v>0.8400590148376316</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8216602094992108</v>
+        <v>0.8164092513185194</v>
       </c>
       <c r="U13" t="n">
-        <v>0.8167807042562424</v>
+        <v>0.8546184964424762</v>
       </c>
       <c r="V13" t="n">
-        <v>0.837338435023219</v>
+        <v>0.8394873677245794</v>
       </c>
       <c r="W13" t="n">
-        <v>0.8339331486896004</v>
+        <v>0.842201421810803</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01261103735217984</v>
+        <v>0.0152562476779882</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.8433675851918564</v>
+        <v>0.855833026010731</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.8391336528667172</v>
+        <v>0.830686107987455</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.8085591089251332</v>
+        <v>0.8106773817691794</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.8089646200423731</v>
+        <v>0.8454388039127227</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.8277219010206457</v>
+        <v>0.8317197892596324</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.8255493736093451</v>
+        <v>0.8348710217879441</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.01463191256952439</v>
+        <v>0.01525686486402442</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.8425925925925926</v>
+        <v>0.8555555555555555</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.8388888888888889</v>
+        <v>0.8314814814814815</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.8101851851851852</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.8092592592592592</v>
+        <v>0.8453703703703703</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.8277777777777777</v>
+        <v>0.8314814814814815</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.8253703703703703</v>
+        <v>0.8348148148148148</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.01438735155522595</v>
+        <v>0.01529992782647023</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.9559304269547325</v>
+        <v>0.9632233796296297</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.9611850565843622</v>
+        <v>0.9591698816872428</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.9503626543209877</v>
+        <v>0.9504243827160495</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.9523263888888889</v>
+        <v>0.9564210390946503</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.9557143775720164</v>
+        <v>0.9503485082304527</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.9551037808641976</v>
+        <v>0.9559174382716049</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.003694056674348618</v>
+        <v>0.005007902200072628</v>
       </c>
       <c r="AW13" t="n">
         <v>11</v>
@@ -2492,16 +2492,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2499734878540039</v>
+        <v>0.283345079421997</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01093835438004606</v>
+        <v>0.06246217162573423</v>
       </c>
       <c r="D14" t="n">
-        <v>79.84329977035523</v>
+        <v>77.66213793754578</v>
       </c>
       <c r="E14" t="n">
-        <v>3.199744555340772</v>
+        <v>1.028728063501259</v>
       </c>
       <c r="F14" t="n">
         <v>11</v>
@@ -2518,121 +2518,121 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0.8509259259259259</v>
+        <v>0.8342592592592593</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8416666666666668</v>
+        <v>0.8055555555555555</v>
       </c>
       <c r="L14" t="n">
+        <v>0.8268518518518518</v>
+      </c>
+      <c r="M14" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="M14" t="n">
-        <v>0.8185185185185184</v>
-      </c>
       <c r="N14" t="n">
-        <v>0.813888888888889</v>
+        <v>0.8425925925925926</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8316666666666667</v>
+        <v>0.8285185185185184</v>
       </c>
       <c r="P14" t="n">
-        <v>0.01387530199624384</v>
+        <v>0.01252432475474886</v>
       </c>
       <c r="Q14" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R14" t="n">
-        <v>0.8570509829361127</v>
+        <v>0.8416067378070009</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8507871336332232</v>
+        <v>0.8131257386465688</v>
       </c>
       <c r="T14" t="n">
-        <v>0.8415483850334508</v>
+        <v>0.8340803008045411</v>
       </c>
       <c r="U14" t="n">
-        <v>0.8249033337772333</v>
+        <v>0.8470414997317012</v>
       </c>
       <c r="V14" t="n">
-        <v>0.8299703451590262</v>
+        <v>0.8518969119311247</v>
       </c>
       <c r="W14" t="n">
-        <v>0.8408520361078093</v>
+        <v>0.8375502377841872</v>
       </c>
       <c r="X14" t="n">
-        <v>0.01211915217287146</v>
+        <v>0.01357175689169282</v>
       </c>
       <c r="Y14" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.8513415596090206</v>
+        <v>0.8342306056668503</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.8413385543463369</v>
+        <v>0.8036918401776564</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.8323083908035076</v>
+        <v>0.8260294883565669</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.8172902135037803</v>
+        <v>0.8318557119197122</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.812777862195294</v>
+        <v>0.8426686507066096</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.831011316091588</v>
+        <v>0.8276952593654791</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.01443870182163328</v>
+        <v>0.01313896107574704</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.850925925925926</v>
+        <v>0.8342592592592593</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="AJ14" t="n">
+        <v>0.8268518518518518</v>
+      </c>
+      <c r="AK14" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="AK14" t="n">
-        <v>0.8185185185185185</v>
-      </c>
       <c r="AL14" t="n">
-        <v>0.8138888888888889</v>
+        <v>0.8425925925925926</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.8316666666666667</v>
+        <v>0.8285185185185184</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.01387530199624386</v>
+        <v>0.01252432475474881</v>
       </c>
       <c r="AO14" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.9582336676954734</v>
+        <v>0.9586033950617283</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.9604803240740741</v>
+        <v>0.9514197530864198</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.9585847479423869</v>
+        <v>0.9564152520576132</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.9547100051440328</v>
+        <v>0.9660069444444445</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.9544077932098766</v>
+        <v>0.9623212448559672</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.9572833076131687</v>
+        <v>0.9589533179012346</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.002354073667031488</v>
+        <v>0.004988294346220357</v>
       </c>
       <c r="AW14" t="n">
         <v>6</v>
@@ -2643,16 +2643,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2516615867614746</v>
+        <v>0.2571584224700928</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01064348437485827</v>
+        <v>0.01500325637472405</v>
       </c>
       <c r="D15" t="n">
-        <v>3.950035238265991</v>
+        <v>4.115939044952393</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06933574543225959</v>
+        <v>0.1313761171194562</v>
       </c>
       <c r="F15" t="n">
         <v>11</v>
@@ -2669,121 +2669,121 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.762037037037037</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7444444444444445</v>
+        <v>0.737962962962963</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7435185185185186</v>
+        <v>0.7509259259259259</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7518518518518519</v>
+        <v>0.7481481481481481</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7287037037037037</v>
+        <v>0.7314814814814815</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7461111111111112</v>
+        <v>0.7442592592592592</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01094630867120859</v>
+        <v>0.008185939298259354</v>
       </c>
       <c r="Q15" t="n">
         <v>31</v>
       </c>
       <c r="R15" t="n">
-        <v>0.7825453640049845</v>
+        <v>0.7687888023019269</v>
       </c>
       <c r="S15" t="n">
-        <v>0.7692753681174658</v>
+        <v>0.7572826203652193</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7620166300821776</v>
+        <v>0.7650525913237778</v>
       </c>
       <c r="U15" t="n">
-        <v>0.7705232695487835</v>
+        <v>0.7704526474063957</v>
       </c>
       <c r="V15" t="n">
-        <v>0.7474765515962482</v>
+        <v>0.7529529862105</v>
       </c>
       <c r="W15" t="n">
-        <v>0.7663674366699319</v>
+        <v>0.7629059295215639</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01151735561585139</v>
+        <v>0.006735755136543216</v>
       </c>
       <c r="Y15" t="n">
         <v>31</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.7633273994304197</v>
+        <v>0.7507554315283019</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.7420741652909778</v>
+        <v>0.7358851146922948</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.7406768257514527</v>
+        <v>0.7493834521034647</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.7502579935230796</v>
+        <v>0.746070510656188</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.7266585952167887</v>
+        <v>0.729482433116913</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.7445989958425437</v>
+        <v>0.7423153884194325</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.01205316155910008</v>
+        <v>0.008262275194357382</v>
       </c>
       <c r="AG15" t="n">
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.7620370370370371</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.7444444444444445</v>
+        <v>0.7379629629629629</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.7435185185185185</v>
+        <v>0.7509259259259259</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.7518518518518519</v>
+        <v>0.7481481481481481</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.7287037037037037</v>
+        <v>0.7314814814814815</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.7461111111111112</v>
+        <v>0.7442592592592592</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.01094630867120863</v>
+        <v>0.008185939298259372</v>
       </c>
       <c r="AO15" t="n">
         <v>31</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.9230484825102879</v>
+        <v>0.9262770061728395</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.9270318930041151</v>
+        <v>0.9178575102880658</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.9179809670781892</v>
+        <v>0.9187506430041151</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.9172935956790124</v>
+        <v>0.9247022890946504</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.9140412808641974</v>
+        <v>0.918966049382716</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.9198792438271605</v>
+        <v>0.9213106995884773</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.004595112764619743</v>
+        <v>0.003468223496698309</v>
       </c>
       <c r="AW15" t="n">
         <v>31</v>
@@ -2794,16 +2794,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2540354251861572</v>
+        <v>0.2397307872772217</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0124168717626369</v>
+        <v>0.01335984668434966</v>
       </c>
       <c r="D16" t="n">
-        <v>85.23594031333923</v>
+        <v>76.6109082698822</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9696262244711191</v>
+        <v>1.073766762506019</v>
       </c>
       <c r="F16" t="n">
         <v>11</v>
@@ -2820,121 +2820,121 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0.7981481481481482</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="K16" t="n">
+        <v>0.7666666666666666</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.8009259259259259</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="N16" t="n">
         <v>0.7925925925925926</v>
       </c>
-      <c r="L16" t="n">
-        <v>0.8037037037037038</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.7777777777777777</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.7703703703703703</v>
-      </c>
       <c r="O16" t="n">
-        <v>0.7885185185185185</v>
+        <v>0.7903703703703704</v>
       </c>
       <c r="P16" t="n">
-        <v>0.01252706261132435</v>
+        <v>0.01243087884950995</v>
       </c>
       <c r="Q16" t="n">
         <v>16</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8089349338258923</v>
+        <v>0.8133160953905397</v>
       </c>
       <c r="S16" t="n">
-        <v>0.809135238694875</v>
+        <v>0.7817227046102883</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8134620504596292</v>
+        <v>0.81644293537923</v>
       </c>
       <c r="U16" t="n">
-        <v>0.7934970884754078</v>
+        <v>0.8121742112482853</v>
       </c>
       <c r="V16" t="n">
-        <v>0.7899103228151479</v>
+        <v>0.8064613421963275</v>
       </c>
       <c r="W16" t="n">
-        <v>0.8029879268541904</v>
+        <v>0.8060234577649341</v>
       </c>
       <c r="X16" t="n">
-        <v>0.009422986157521985</v>
+        <v>0.01257217715723458</v>
       </c>
       <c r="Y16" t="n">
         <v>16</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.7968394030681397</v>
+        <v>0.7988367912950073</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.7912515786871811</v>
+        <v>0.7626821671340634</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.8020169177952697</v>
+        <v>0.7996737775046751</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.7731601810024422</v>
+        <v>0.7887895637676147</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.7669347252646052</v>
+        <v>0.7910452227263708</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.7860405611635276</v>
+        <v>0.7882055044855463</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.01363782108570043</v>
+        <v>0.01344909974500998</v>
       </c>
       <c r="AG16" t="n">
         <v>16</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.7981481481481482</v>
+        <v>0.8</v>
       </c>
       <c r="AI16" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.8009259259259259</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="AL16" t="n">
         <v>0.7925925925925926</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>0.8037037037037037</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0.7703703703703704</v>
-      </c>
       <c r="AM16" t="n">
-        <v>0.7885185185185184</v>
+        <v>0.7903703703703704</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.01252706261132427</v>
+        <v>0.01243087884950992</v>
       </c>
       <c r="AO16" t="n">
         <v>16</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.9458802726337447</v>
+        <v>0.9440586419753085</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.942306455761317</v>
+        <v>0.9343634259259259</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.9456230709876543</v>
+        <v>0.9431764403292182</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.9426170267489713</v>
+        <v>0.9524710648148148</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.9373849022633746</v>
+        <v>0.9458584104938271</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.9427623456790124</v>
+        <v>0.943985596707819</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.003067607167921673</v>
+        <v>0.005809592768584644</v>
       </c>
       <c r="AW16" t="n">
         <v>16</v>
@@ -2945,16 +2945,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2954397201538086</v>
+        <v>0.2530931472778321</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04916141313449675</v>
+        <v>0.02003665559949062</v>
       </c>
       <c r="D17" t="n">
-        <v>4.516187477111816</v>
+        <v>3.953208875656128</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3352375779754536</v>
+        <v>0.1861155758803007</v>
       </c>
       <c r="F17" t="n">
         <v>11</v>
@@ -2971,121 +2971,121 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0.7277777777777779</v>
+        <v>0.7240740740740742</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7185185185185184</v>
+        <v>0.7046296296296296</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7185185185185184</v>
+        <v>0.7388888888888889</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7314814814814814</v>
+        <v>0.7268518518518517</v>
       </c>
       <c r="N17" t="n">
-        <v>0.7138888888888889</v>
+        <v>0.7175925925925926</v>
       </c>
       <c r="O17" t="n">
-        <v>0.722037037037037</v>
+        <v>0.7224074074074074</v>
       </c>
       <c r="P17" t="n">
-        <v>0.006531552625388297</v>
+        <v>0.0112552380733502</v>
       </c>
       <c r="Q17" t="n">
         <v>36</v>
       </c>
       <c r="R17" t="n">
-        <v>0.7582029989053084</v>
+        <v>0.7485581699108922</v>
       </c>
       <c r="S17" t="n">
-        <v>0.7434540866031637</v>
+        <v>0.7329537810068051</v>
       </c>
       <c r="T17" t="n">
-        <v>0.7490851044467631</v>
+        <v>0.7557894933010223</v>
       </c>
       <c r="U17" t="n">
-        <v>0.7569774104249642</v>
+        <v>0.755348453467933</v>
       </c>
       <c r="V17" t="n">
-        <v>0.7393727805494433</v>
+        <v>0.7477794831586778</v>
       </c>
       <c r="W17" t="n">
-        <v>0.7494184761859286</v>
+        <v>0.7480858761690661</v>
       </c>
       <c r="X17" t="n">
-        <v>0.007360793528821919</v>
+        <v>0.008263025934763754</v>
       </c>
       <c r="Y17" t="n">
         <v>36</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.7265445862978229</v>
+        <v>0.7196912301723765</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.7124398278350669</v>
+        <v>0.6994449234088074</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.7140328733648952</v>
+        <v>0.7362755996176639</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.7246188866277966</v>
+        <v>0.7197379207328581</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.7088721331269549</v>
+        <v>0.7121016962205182</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.7173016614505072</v>
+        <v>0.7174502740304448</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.006990748077834308</v>
+        <v>0.01197871471341451</v>
       </c>
       <c r="AG17" t="n">
         <v>36</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.7277777777777777</v>
+        <v>0.7240740740740741</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.7185185185185186</v>
+        <v>0.7046296296296296</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.7185185185185186</v>
+        <v>0.7388888888888889</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.7314814814814815</v>
+        <v>0.7268518518518519</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.7138888888888889</v>
+        <v>0.7175925925925926</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.722037037037037</v>
+        <v>0.7224074074074075</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.006531552625388286</v>
+        <v>0.0112552380733502</v>
       </c>
       <c r="AO17" t="n">
         <v>36</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.9092734053497943</v>
+        <v>0.9104668209876543</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.9085931069958848</v>
+        <v>0.8952096193415637</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.9042496141975308</v>
+        <v>0.9063168724279835</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.9045743312757203</v>
+        <v>0.9114493312757203</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.8967959104938271</v>
+        <v>0.9041087962962964</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.9046972736625515</v>
+        <v>0.9055102880658437</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.004444447149675085</v>
+        <v>0.005806168900996423</v>
       </c>
       <c r="AW17" t="n">
         <v>36</v>
@@ -3096,16 +3096,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2756437778472901</v>
+        <v>0.293347978591919</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03664661223057519</v>
+        <v>0.04368778430630785</v>
       </c>
       <c r="D18" t="n">
-        <v>88.80872650146485</v>
+        <v>74.96795144081116</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8707920648350105</v>
+        <v>2.477468120863029</v>
       </c>
       <c r="F18" t="n">
         <v>11</v>
@@ -3122,121 +3122,121 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.7907407407407407</v>
+        <v>0.7787037037037038</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7574074074074074</v>
+        <v>0.736111111111111</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7749999999999999</v>
+        <v>0.7787037037037036</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7537037037037037</v>
+        <v>0.7824074074074074</v>
       </c>
       <c r="N18" t="n">
-        <v>0.7611111111111111</v>
+        <v>0.7601851851851852</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7675925925925926</v>
+        <v>0.7672222222222222</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01363345356985627</v>
+        <v>0.01738769569526743</v>
       </c>
       <c r="Q18" t="n">
         <v>21</v>
       </c>
       <c r="R18" t="n">
-        <v>0.8048833684358945</v>
+        <v>0.7963694779116466</v>
       </c>
       <c r="S18" t="n">
-        <v>0.7812398294156226</v>
+        <v>0.7493297903153016</v>
       </c>
       <c r="T18" t="n">
-        <v>0.7905059286895711</v>
+        <v>0.7976825262479093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.7714315125395194</v>
+        <v>0.8016339869281045</v>
       </c>
       <c r="V18" t="n">
-        <v>0.7863795736227243</v>
+        <v>0.7808634142596441</v>
       </c>
       <c r="W18" t="n">
-        <v>0.7868880425406664</v>
+        <v>0.7851758391325212</v>
       </c>
       <c r="X18" t="n">
-        <v>0.01102711227914807</v>
+        <v>0.01926718258942765</v>
       </c>
       <c r="Y18" t="n">
         <v>21</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.7883481556377241</v>
+        <v>0.7764921558258417</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.7554519671212621</v>
+        <v>0.7315659404680925</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.7714927592161777</v>
+        <v>0.7744737442882</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.7481664061579375</v>
+        <v>0.7784627525252525</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.7564103633383561</v>
+        <v>0.7561769336627503</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.7639739302942915</v>
+        <v>0.7634343053540273</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.01435510271777827</v>
+        <v>0.01781287747486256</v>
       </c>
       <c r="AG18" t="n">
         <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.7907407407407407</v>
+        <v>0.7787037037037037</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.7574074074074074</v>
+        <v>0.7361111111111112</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.775</v>
+        <v>0.7787037037037037</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.7537037037037037</v>
+        <v>0.7824074074074074</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.7611111111111111</v>
+        <v>0.7601851851851852</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.7675925925925926</v>
+        <v>0.7672222222222222</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.01363345356985628</v>
+        <v>0.01738769569526739</v>
       </c>
       <c r="AO18" t="n">
         <v>21</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.937854938271605</v>
+        <v>0.9362660751028806</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.9316685956790124</v>
+        <v>0.9211863425925926</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.9371707818930042</v>
+        <v>0.9360776748971192</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.929571116255144</v>
+        <v>0.9425758744855969</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.9304417438271604</v>
+        <v>0.9338445216049384</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.9333414351851852</v>
+        <v>0.9339900977366256</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.003477283800303015</v>
+        <v>0.007031514089502555</v>
       </c>
       <c r="AW18" t="n">
         <v>21</v>
@@ -3247,16 +3247,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.255315637588501</v>
+        <v>0.2681073665618897</v>
       </c>
       <c r="C19" t="n">
-        <v>0.008621832184943987</v>
+        <v>0.0412619360524816</v>
       </c>
       <c r="D19" t="n">
-        <v>4.269613885879517</v>
+        <v>4.647997617721558</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5749749332417871</v>
+        <v>0.5576907584983419</v>
       </c>
       <c r="F19" t="n">
         <v>11</v>
@@ -3273,121 +3273,121 @@
         </is>
       </c>
       <c r="J19" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.6833333333333335</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.7185185185185184</v>
+      </c>
+      <c r="M19" t="n">
         <v>0.7129629629629629</v>
       </c>
-      <c r="K19" t="n">
-        <v>0.6888888888888888</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.7157407407407407</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.7037037037037037</v>
-      </c>
       <c r="N19" t="n">
-        <v>0.6833333333333332</v>
+        <v>0.6981481481481481</v>
       </c>
       <c r="O19" t="n">
-        <v>0.7009259259259258</v>
+        <v>0.7025925925925927</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01285670737608134</v>
+        <v>0.01231725122097467</v>
       </c>
       <c r="Q19" t="n">
         <v>41</v>
       </c>
       <c r="R19" t="n">
-        <v>0.7516752085717603</v>
+        <v>0.7261500559061534</v>
       </c>
       <c r="S19" t="n">
-        <v>0.7269602773308819</v>
+        <v>0.7178436628724763</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7508839735541143</v>
+        <v>0.7480445258136795</v>
       </c>
       <c r="U19" t="n">
-        <v>0.7385433118278844</v>
+        <v>0.7541955354267255</v>
       </c>
       <c r="V19" t="n">
-        <v>0.7187312367228685</v>
+        <v>0.7381730118959465</v>
       </c>
       <c r="W19" t="n">
-        <v>0.7373588016015018</v>
+        <v>0.7368813583829963</v>
       </c>
       <c r="X19" t="n">
-        <v>0.01299544789283209</v>
+        <v>0.01344366100275777</v>
       </c>
       <c r="Y19" t="n">
         <v>41</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.7071587900292569</v>
+        <v>0.6903447891450311</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.6810202267170483</v>
+        <v>0.6725570457762785</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.7040426854814537</v>
+        <v>0.7117676893296698</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.6954025759305543</v>
+        <v>0.7026479249889722</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.6758822835680568</v>
+        <v>0.6888953993875044</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.692701312345274</v>
+        <v>0.6932425697254913</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.01236341151152773</v>
+        <v>0.01331785784031973</v>
       </c>
       <c r="AG19" t="n">
         <v>41</v>
       </c>
       <c r="AH19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.6833333333333333</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.7185185185185186</v>
+      </c>
+      <c r="AK19" t="n">
         <v>0.7129629629629629</v>
       </c>
-      <c r="AI19" t="n">
-        <v>0.6888888888888889</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0.7157407407407408</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0.7037037037037037</v>
-      </c>
       <c r="AL19" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6981481481481482</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.700925925925926</v>
+        <v>0.7025925925925927</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.01285670737608132</v>
+        <v>0.01231725122097473</v>
       </c>
       <c r="AO19" t="n">
         <v>41</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.903047839506173</v>
+        <v>0.9026613940329219</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.8925495113168723</v>
+        <v>0.8887088477366255</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.9016467335390946</v>
+        <v>0.899343492798354</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.8966512345679013</v>
+        <v>0.9009979423868312</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.8823270318930042</v>
+        <v>0.8929539609053498</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.8952444701646091</v>
+        <v>0.8969331275720165</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.007456320140326931</v>
+        <v>0.005265323595414389</v>
       </c>
       <c r="AW19" t="n">
         <v>41</v>
@@ -3398,16 +3398,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3018903255462647</v>
+        <v>0.251996660232544</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05760435591614341</v>
+        <v>0.01998836034913315</v>
       </c>
       <c r="D20" t="n">
-        <v>84.05937814712524</v>
+        <v>79.7269832611084</v>
       </c>
       <c r="E20" t="n">
-        <v>4.76235410539763</v>
+        <v>2.41168035077752</v>
       </c>
       <c r="F20" t="n">
         <v>11</v>
@@ -3424,121 +3424,121 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>0.762037037037037</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7277777777777779</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L20" t="n">
-        <v>0.773148148148148</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7324074074074075</v>
+        <v>0.762962962962963</v>
       </c>
       <c r="N20" t="n">
-        <v>0.7435185185185186</v>
+        <v>0.75</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7477777777777778</v>
+        <v>0.745925925925926</v>
       </c>
       <c r="P20" t="n">
-        <v>0.01732842602265115</v>
+        <v>0.01366611461295933</v>
       </c>
       <c r="Q20" t="n">
         <v>26</v>
       </c>
       <c r="R20" t="n">
-        <v>0.7813981618937653</v>
+        <v>0.7774139119599887</v>
       </c>
       <c r="S20" t="n">
-        <v>0.7547027678141663</v>
+        <v>0.7399304975917419</v>
       </c>
       <c r="T20" t="n">
-        <v>0.793337196624481</v>
+        <v>0.7654061942453406</v>
       </c>
       <c r="U20" t="n">
-        <v>0.7546655359391462</v>
+        <v>0.7933287735640276</v>
       </c>
       <c r="V20" t="n">
-        <v>0.7769187125113209</v>
+        <v>0.7725480931689576</v>
       </c>
       <c r="W20" t="n">
-        <v>0.772204474956576</v>
+        <v>0.7697254941060112</v>
       </c>
       <c r="X20" t="n">
-        <v>0.01527916211754132</v>
+        <v>0.01749623847752673</v>
       </c>
       <c r="Y20" t="n">
         <v>26</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.759299236911177</v>
+        <v>0.7486513108300558</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.7243585156992781</v>
+        <v>0.7137361177973943</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.7690142738754749</v>
+        <v>0.7371380319453938</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.7252018565068122</v>
+        <v>0.7567353276104694</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.7388562225267753</v>
+        <v>0.7445360116441092</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.7433460211039036</v>
+        <v>0.7401593599654845</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.0180180945530815</v>
+        <v>0.01465160170389852</v>
       </c>
       <c r="AG20" t="n">
         <v>31</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.7620370370370371</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.7277777777777777</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.7731481481481481</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.7324074074074074</v>
+        <v>0.762962962962963</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.7435185185185185</v>
+        <v>0.75</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.7477777777777778</v>
+        <v>0.745925925925926</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.01732842602265125</v>
+        <v>0.01366611461295933</v>
       </c>
       <c r="AO20" t="n">
         <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.9274697788065843</v>
+        <v>0.9304963991769547</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.9222993827160494</v>
+        <v>0.9120248199588478</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.9290689300411522</v>
+        <v>0.9265354938271605</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.9215052726337448</v>
+        <v>0.9313271604938271</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.920889274691358</v>
+        <v>0.9264737654320987</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.9242465277777777</v>
+        <v>0.9253715277777778</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.003353264460995498</v>
+        <v>0.006963307006317976</v>
       </c>
       <c r="AW20" t="n">
         <v>26</v>
@@ -3549,16 +3549,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.284727668762207</v>
+        <v>0.2923989295959473</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0118175611366938</v>
+        <v>0.06777989465511831</v>
       </c>
       <c r="D21" t="n">
-        <v>4.176399564743042</v>
+        <v>4.860566806793213</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1532091680084133</v>
+        <v>0.5208068325560035</v>
       </c>
       <c r="F21" t="n">
         <v>11</v>
@@ -3575,121 +3575,121 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6722222222222222</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6731481481481482</v>
+        <v>0.6722222222222222</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7092592592592593</v>
+        <v>0.688888888888889</v>
       </c>
       <c r="M21" t="n">
-        <v>0.688888888888889</v>
+        <v>0.687962962962963</v>
       </c>
       <c r="N21" t="n">
-        <v>0.6638888888888889</v>
+        <v>0.6870370370370371</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6887037037037038</v>
+        <v>0.6816666666666666</v>
       </c>
       <c r="P21" t="n">
-        <v>0.01825178270790175</v>
+        <v>0.007733560376970842</v>
       </c>
       <c r="Q21" t="n">
         <v>46</v>
       </c>
       <c r="R21" t="n">
-        <v>0.744028433639785</v>
+        <v>0.7060196103779638</v>
       </c>
       <c r="S21" t="n">
-        <v>0.7241766433845239</v>
+        <v>0.7066478428978429</v>
       </c>
       <c r="T21" t="n">
-        <v>0.7445346184047046</v>
+        <v>0.72206970758899</v>
       </c>
       <c r="U21" t="n">
-        <v>0.7329642258673984</v>
+        <v>0.7360964842439991</v>
       </c>
       <c r="V21" t="n">
-        <v>0.7073659964277503</v>
+        <v>0.7315388404976783</v>
       </c>
       <c r="W21" t="n">
-        <v>0.7306139835448324</v>
+        <v>0.7204744971212947</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0138648003127501</v>
+        <v>0.01240266898877924</v>
       </c>
       <c r="Y21" t="n">
         <v>46</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.7002741469913</v>
+        <v>0.6588697788681112</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.6641263728611273</v>
+        <v>0.660753842228558</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.6974666003489407</v>
+        <v>0.6797170204555553</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.6782835702044007</v>
+        <v>0.6773815852763221</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.6553007426235504</v>
+        <v>0.6770327410029556</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.6790902866058637</v>
+        <v>0.6707509935663004</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.01775926100046044</v>
+        <v>0.008999122546514922</v>
       </c>
       <c r="AG21" t="n">
         <v>46</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6722222222222223</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.6731481481481482</v>
+        <v>0.6722222222222223</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.7092592592592593</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.6888888888888889</v>
+        <v>0.687962962962963</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.6638888888888889</v>
+        <v>0.687037037037037</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.6887037037037038</v>
+        <v>0.6816666666666666</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.01825178270790175</v>
+        <v>0.007733560376970751</v>
       </c>
       <c r="AO21" t="n">
         <v>46</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.8962229938271604</v>
+        <v>0.8929391718106996</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.884710005144033</v>
+        <v>0.8792791923868313</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.8975456532921812</v>
+        <v>0.88943158436214</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.8848784722222223</v>
+        <v>0.895985725308642</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.8755838477366256</v>
+        <v>0.8835210905349795</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.8877881944444445</v>
+        <v>0.8882313528806585</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.008163842908045844</v>
+        <v>0.006100199264145799</v>
       </c>
       <c r="AW21" t="n">
         <v>46</v>
@@ -3700,16 +3700,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2585838794708252</v>
+        <v>0.3234452247619629</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01254053191179462</v>
+        <v>0.09592998573635607</v>
       </c>
       <c r="D22" t="n">
-        <v>80.4014051914215</v>
+        <v>79.83547658920288</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7462169405857141</v>
+        <v>2.101190098985244</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -3726,121 +3726,121 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0.8944444444444445</v>
+        <v>0.8935185185185185</v>
       </c>
       <c r="K22" t="n">
+        <v>0.8796296296296297</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.8768518518518519</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.9018518518518519</v>
+      </c>
+      <c r="N22" t="n">
         <v>0.8870370370370372</v>
       </c>
-      <c r="L22" t="n">
-        <v>0.8824074074074074</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8824074074074074</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.8972222222222221</v>
-      </c>
       <c r="O22" t="n">
-        <v>0.8887037037037038</v>
+        <v>0.8877777777777778</v>
       </c>
       <c r="P22" t="n">
-        <v>0.006125124225385614</v>
+        <v>0.009136219543365933</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8967748675188513</v>
+        <v>0.8950751252566641</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8893967209153474</v>
+        <v>0.8836035804697705</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8873136323159004</v>
+        <v>0.8795774388446801</v>
       </c>
       <c r="U22" t="n">
-        <v>0.8834470060689573</v>
+        <v>0.9047606316243662</v>
       </c>
       <c r="V22" t="n">
-        <v>0.9040121066205434</v>
+        <v>0.8924087907666154</v>
       </c>
       <c r="W22" t="n">
-        <v>0.89218886668792</v>
+        <v>0.8910851133924194</v>
       </c>
       <c r="X22" t="n">
-        <v>0.007332182777379058</v>
+        <v>0.008866702022166374</v>
       </c>
       <c r="Y22" t="n">
         <v>1</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.894552834863128</v>
+        <v>0.893424572874942</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.8869312948260316</v>
+        <v>0.8788459083365249</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.882160548735221</v>
+        <v>0.8766809014340892</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.8818070989863367</v>
+        <v>0.9013987582747477</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.8975508400377579</v>
+        <v>0.8867420248317943</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.8886005234896951</v>
+        <v>0.8874184331504196</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.00641791855120513</v>
+        <v>0.009173478099717185</v>
       </c>
       <c r="AG22" t="n">
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.8944444444444445</v>
+        <v>0.8935185185185185</v>
       </c>
       <c r="AI22" t="n">
+        <v>0.8796296296296297</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.8768518518518519</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.9018518518518519</v>
+      </c>
+      <c r="AL22" t="n">
         <v>0.8870370370370371</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>0.8824074074074074</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0.8824074074074074</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0.8972222222222223</v>
-      </c>
       <c r="AM22" t="n">
-        <v>0.8887037037037038</v>
+        <v>0.8877777777777778</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.00612512422538565</v>
+        <v>0.009136219543365935</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.9755883487654322</v>
+        <v>0.9800880915637861</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.9783307613168725</v>
+        <v>0.9762127057613169</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.9760866769547324</v>
+        <v>0.972477494855967</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.9776228137860082</v>
+        <v>0.9809561471193415</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.9797614454732511</v>
+        <v>0.978545524691358</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.9774780092592593</v>
+        <v>0.9776559927983539</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.001514520236223371</v>
+        <v>0.003049501872319666</v>
       </c>
       <c r="AW22" t="n">
         <v>1</v>
@@ -3851,16 +3851,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2801409244537353</v>
+        <v>0.2645345687866211</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01601826707482683</v>
+        <v>0.04585669125829113</v>
       </c>
       <c r="D23" t="n">
-        <v>4.032591009140015</v>
+        <v>4.269271469116211</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1390978029844664</v>
+        <v>0.1182923156028372</v>
       </c>
       <c r="F23" t="n">
         <v>21</v>
@@ -3877,121 +3877,121 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.8425925925925926</v>
+        <v>0.8555555555555555</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8388888888888889</v>
+        <v>0.8314814814814815</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8083333333333332</v>
+        <v>0.8101851851851851</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8092592592592592</v>
+        <v>0.8453703703703704</v>
       </c>
       <c r="N23" t="n">
-        <v>0.8277777777777778</v>
+        <v>0.8314814814814815</v>
       </c>
       <c r="O23" t="n">
-        <v>0.8253703703703703</v>
+        <v>0.8348148148148148</v>
       </c>
       <c r="P23" t="n">
-        <v>0.01438735155522598</v>
+        <v>0.01529992782647027</v>
       </c>
       <c r="Q23" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R23" t="n">
-        <v>0.8472904886908251</v>
+        <v>0.8604329787308083</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8465959059785044</v>
+        <v>0.8400590148376316</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8216602094992108</v>
+        <v>0.8164092513185194</v>
       </c>
       <c r="U23" t="n">
-        <v>0.8167807042562424</v>
+        <v>0.8546184964424762</v>
       </c>
       <c r="V23" t="n">
-        <v>0.837338435023219</v>
+        <v>0.8394873677245794</v>
       </c>
       <c r="W23" t="n">
-        <v>0.8339331486896004</v>
+        <v>0.842201421810803</v>
       </c>
       <c r="X23" t="n">
-        <v>0.01261103735217984</v>
+        <v>0.0152562476779882</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.8433675851918564</v>
+        <v>0.855833026010731</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.8391336528667172</v>
+        <v>0.830686107987455</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.8085591089251332</v>
+        <v>0.8106773817691794</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.8089646200423731</v>
+        <v>0.8454388039127227</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.8277219010206457</v>
+        <v>0.8317197892596324</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.8255493736093451</v>
+        <v>0.8348710217879441</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.01463191256952439</v>
+        <v>0.01525686486402442</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.8425925925925926</v>
+        <v>0.8555555555555555</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.8388888888888889</v>
+        <v>0.8314814814814815</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.8101851851851852</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.8092592592592592</v>
+        <v>0.8453703703703703</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.8277777777777777</v>
+        <v>0.8314814814814815</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.8253703703703703</v>
+        <v>0.8348148148148148</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.01438735155522595</v>
+        <v>0.01529992782647023</v>
       </c>
       <c r="AO23" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.9559304269547325</v>
+        <v>0.9632233796296297</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.9611850565843622</v>
+        <v>0.9591698816872428</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.9503626543209877</v>
+        <v>0.9504243827160495</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.9523263888888889</v>
+        <v>0.9564210390946503</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.9557143775720164</v>
+        <v>0.9503485082304527</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.9551037808641976</v>
+        <v>0.9559174382716049</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.003694056674348618</v>
+        <v>0.005007902200072628</v>
       </c>
       <c r="AW23" t="n">
         <v>11</v>
@@ -4002,16 +4002,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2592928886413574</v>
+        <v>0.2941715240478516</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00840219425532192</v>
+        <v>0.05494261197713648</v>
       </c>
       <c r="D24" t="n">
-        <v>81.89156999588013</v>
+        <v>82.0327513217926</v>
       </c>
       <c r="E24" t="n">
-        <v>1.670390232014557</v>
+        <v>2.63573538663431</v>
       </c>
       <c r="F24" t="n">
         <v>21</v>
@@ -4028,121 +4028,121 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0.8509259259259259</v>
+        <v>0.8342592592592593</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8416666666666668</v>
+        <v>0.8055555555555555</v>
       </c>
       <c r="L24" t="n">
+        <v>0.8268518518518518</v>
+      </c>
+      <c r="M24" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="M24" t="n">
-        <v>0.8185185185185184</v>
-      </c>
       <c r="N24" t="n">
-        <v>0.813888888888889</v>
+        <v>0.8425925925925926</v>
       </c>
       <c r="O24" t="n">
-        <v>0.8316666666666667</v>
+        <v>0.8285185185185184</v>
       </c>
       <c r="P24" t="n">
-        <v>0.01387530199624384</v>
+        <v>0.01252432475474886</v>
       </c>
       <c r="Q24" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R24" t="n">
-        <v>0.8570509829361127</v>
+        <v>0.8416067378070009</v>
       </c>
       <c r="S24" t="n">
-        <v>0.8507871336332232</v>
+        <v>0.8131257386465688</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8415483850334508</v>
+        <v>0.8340803008045411</v>
       </c>
       <c r="U24" t="n">
-        <v>0.8249033337772333</v>
+        <v>0.8470414997317012</v>
       </c>
       <c r="V24" t="n">
-        <v>0.8299703451590262</v>
+        <v>0.8518969119311247</v>
       </c>
       <c r="W24" t="n">
-        <v>0.8408520361078093</v>
+        <v>0.8375502377841872</v>
       </c>
       <c r="X24" t="n">
-        <v>0.01211915217287146</v>
+        <v>0.01357175689169282</v>
       </c>
       <c r="Y24" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.8513415596090206</v>
+        <v>0.8342306056668503</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.8413385543463369</v>
+        <v>0.8036918401776564</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.8323083908035076</v>
+        <v>0.8260294883565669</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.8172902135037803</v>
+        <v>0.8318557119197122</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.812777862195294</v>
+        <v>0.8426686507066096</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.831011316091588</v>
+        <v>0.8276952593654791</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.01443870182163328</v>
+        <v>0.01313896107574704</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.850925925925926</v>
+        <v>0.8342592592592593</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="AJ24" t="n">
+        <v>0.8268518518518518</v>
+      </c>
+      <c r="AK24" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="AK24" t="n">
-        <v>0.8185185185185185</v>
-      </c>
       <c r="AL24" t="n">
-        <v>0.8138888888888889</v>
+        <v>0.8425925925925926</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.8316666666666667</v>
+        <v>0.8285185185185184</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.01387530199624386</v>
+        <v>0.01252432475474881</v>
       </c>
       <c r="AO24" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.9582336676954734</v>
+        <v>0.9586033950617283</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.9604803240740741</v>
+        <v>0.9514197530864198</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.9585847479423869</v>
+        <v>0.9564152520576132</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.9547100051440328</v>
+        <v>0.9660069444444445</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.9544077932098766</v>
+        <v>0.9623212448559672</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.9572833076131687</v>
+        <v>0.9589533179012346</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.002354073667031488</v>
+        <v>0.004988294346220357</v>
       </c>
       <c r="AW24" t="n">
         <v>6</v>
@@ -4153,16 +4153,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3438364982604981</v>
+        <v>0.2845366477966308</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06403415054069719</v>
+        <v>0.03250838766856586</v>
       </c>
       <c r="D25" t="n">
-        <v>5.061975622177124</v>
+        <v>4.331076288223267</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3226334463008084</v>
+        <v>0.2350687169486685</v>
       </c>
       <c r="F25" t="n">
         <v>21</v>
@@ -4179,121 +4179,121 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0.762037037037037</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7444444444444445</v>
+        <v>0.737962962962963</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7435185185185186</v>
+        <v>0.7509259259259259</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7518518518518519</v>
+        <v>0.7481481481481481</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7287037037037037</v>
+        <v>0.7314814814814815</v>
       </c>
       <c r="O25" t="n">
-        <v>0.7461111111111112</v>
+        <v>0.7442592592592592</v>
       </c>
       <c r="P25" t="n">
-        <v>0.01094630867120859</v>
+        <v>0.008185939298259354</v>
       </c>
       <c r="Q25" t="n">
         <v>31</v>
       </c>
       <c r="R25" t="n">
-        <v>0.7825453640049845</v>
+        <v>0.7687888023019269</v>
       </c>
       <c r="S25" t="n">
-        <v>0.7692753681174658</v>
+        <v>0.7572826203652193</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7620166300821776</v>
+        <v>0.7650525913237778</v>
       </c>
       <c r="U25" t="n">
-        <v>0.7705232695487835</v>
+        <v>0.7704526474063957</v>
       </c>
       <c r="V25" t="n">
-        <v>0.7474765515962482</v>
+        <v>0.7529529862105</v>
       </c>
       <c r="W25" t="n">
-        <v>0.7663674366699319</v>
+        <v>0.7629059295215639</v>
       </c>
       <c r="X25" t="n">
-        <v>0.01151735561585139</v>
+        <v>0.006735755136543216</v>
       </c>
       <c r="Y25" t="n">
         <v>31</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.7633273994304197</v>
+        <v>0.7507554315283019</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.7420741652909778</v>
+        <v>0.7358851146922948</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.7406768257514527</v>
+        <v>0.7493834521034647</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.7502579935230796</v>
+        <v>0.746070510656188</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.7266585952167887</v>
+        <v>0.729482433116913</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.7445989958425437</v>
+        <v>0.7423153884194325</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.01205316155910008</v>
+        <v>0.008262275194357382</v>
       </c>
       <c r="AG25" t="n">
         <v>26</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.7620370370370371</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.7444444444444445</v>
+        <v>0.7379629629629629</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.7435185185185185</v>
+        <v>0.7509259259259259</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.7518518518518519</v>
+        <v>0.7481481481481481</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.7287037037037037</v>
+        <v>0.7314814814814815</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.7461111111111112</v>
+        <v>0.7442592592592592</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.01094630867120863</v>
+        <v>0.008185939298259372</v>
       </c>
       <c r="AO25" t="n">
         <v>31</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.9230484825102879</v>
+        <v>0.9262770061728395</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.9270318930041151</v>
+        <v>0.9178575102880658</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.9179809670781892</v>
+        <v>0.9187506430041151</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.9172935956790124</v>
+        <v>0.9247022890946504</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.9140412808641974</v>
+        <v>0.918966049382716</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.9198792438271605</v>
+        <v>0.9213106995884773</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.004595112764619743</v>
+        <v>0.003468223496698309</v>
       </c>
       <c r="AW25" t="n">
         <v>31</v>
@@ -4304,16 +4304,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2691540241241455</v>
+        <v>0.3063275337219238</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03637736787664339</v>
+        <v>0.1100662656730192</v>
       </c>
       <c r="D26" t="n">
-        <v>78.38496341705323</v>
+        <v>88.95441427230836</v>
       </c>
       <c r="E26" t="n">
-        <v>1.944002714150951</v>
+        <v>3.160463392510951</v>
       </c>
       <c r="F26" t="n">
         <v>21</v>
@@ -4330,121 +4330,121 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0.7981481481481482</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="K26" t="n">
+        <v>0.7666666666666666</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.8009259259259259</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="N26" t="n">
         <v>0.7925925925925926</v>
       </c>
-      <c r="L26" t="n">
-        <v>0.8037037037037038</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.7777777777777777</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.7703703703703703</v>
-      </c>
       <c r="O26" t="n">
-        <v>0.7885185185185185</v>
+        <v>0.7903703703703704</v>
       </c>
       <c r="P26" t="n">
-        <v>0.01252706261132435</v>
+        <v>0.01243087884950995</v>
       </c>
       <c r="Q26" t="n">
         <v>16</v>
       </c>
       <c r="R26" t="n">
-        <v>0.8089349338258923</v>
+        <v>0.8133160953905397</v>
       </c>
       <c r="S26" t="n">
-        <v>0.809135238694875</v>
+        <v>0.7817227046102883</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8134620504596292</v>
+        <v>0.81644293537923</v>
       </c>
       <c r="U26" t="n">
-        <v>0.7934970884754078</v>
+        <v>0.8121742112482853</v>
       </c>
       <c r="V26" t="n">
-        <v>0.7899103228151479</v>
+        <v>0.8064613421963275</v>
       </c>
       <c r="W26" t="n">
-        <v>0.8029879268541904</v>
+        <v>0.8060234577649341</v>
       </c>
       <c r="X26" t="n">
-        <v>0.009422986157521985</v>
+        <v>0.01257217715723458</v>
       </c>
       <c r="Y26" t="n">
         <v>16</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.7968394030681397</v>
+        <v>0.7988367912950073</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.7912515786871811</v>
+        <v>0.7626821671340634</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.8020169177952697</v>
+        <v>0.7996737775046751</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.7731601810024422</v>
+        <v>0.7887895637676147</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.7669347252646052</v>
+        <v>0.7910452227263708</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.7860405611635276</v>
+        <v>0.7882055044855463</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.01363782108570043</v>
+        <v>0.01344909974500998</v>
       </c>
       <c r="AG26" t="n">
         <v>16</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.7981481481481482</v>
+        <v>0.8</v>
       </c>
       <c r="AI26" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.8009259259259259</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="AL26" t="n">
         <v>0.7925925925925926</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>0.8037037037037037</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0.7703703703703704</v>
-      </c>
       <c r="AM26" t="n">
-        <v>0.7885185185185184</v>
+        <v>0.7903703703703704</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.01252706261132427</v>
+        <v>0.01243087884950992</v>
       </c>
       <c r="AO26" t="n">
         <v>16</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.9458802726337447</v>
+        <v>0.9440586419753085</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.942306455761317</v>
+        <v>0.9343634259259259</v>
       </c>
       <c r="AR26" t="n">
-        <v>0.9456230709876543</v>
+        <v>0.9431764403292182</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.9426170267489713</v>
+        <v>0.9524710648148148</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.9373849022633746</v>
+        <v>0.9458584104938271</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.9427623456790124</v>
+        <v>0.943985596707819</v>
       </c>
       <c r="AV26" t="n">
-        <v>0.003067607167921673</v>
+        <v>0.005809592768584644</v>
       </c>
       <c r="AW26" t="n">
         <v>16</v>
@@ -4455,16 +4455,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2594066143035889</v>
+        <v>0.3673895835876465</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02469302816207238</v>
+        <v>0.1081449519710321</v>
       </c>
       <c r="D27" t="n">
-        <v>4.042139101028442</v>
+        <v>5.566009950637818</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1998556620729199</v>
+        <v>0.455844035526546</v>
       </c>
       <c r="F27" t="n">
         <v>21</v>
@@ -4481,121 +4481,121 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0.7277777777777779</v>
+        <v>0.7240740740740742</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7185185185185184</v>
+        <v>0.7046296296296296</v>
       </c>
       <c r="L27" t="n">
-        <v>0.7185185185185184</v>
+        <v>0.7388888888888889</v>
       </c>
       <c r="M27" t="n">
-        <v>0.7314814814814814</v>
+        <v>0.7268518518518517</v>
       </c>
       <c r="N27" t="n">
-        <v>0.7138888888888889</v>
+        <v>0.7175925925925926</v>
       </c>
       <c r="O27" t="n">
-        <v>0.722037037037037</v>
+        <v>0.7224074074074074</v>
       </c>
       <c r="P27" t="n">
-        <v>0.006531552625388297</v>
+        <v>0.0112552380733502</v>
       </c>
       <c r="Q27" t="n">
         <v>36</v>
       </c>
       <c r="R27" t="n">
-        <v>0.7582029989053084</v>
+        <v>0.7485581699108922</v>
       </c>
       <c r="S27" t="n">
-        <v>0.7434540866031637</v>
+        <v>0.7329537810068051</v>
       </c>
       <c r="T27" t="n">
-        <v>0.7490851044467631</v>
+        <v>0.7557894933010223</v>
       </c>
       <c r="U27" t="n">
-        <v>0.7569774104249642</v>
+        <v>0.755348453467933</v>
       </c>
       <c r="V27" t="n">
-        <v>0.7393727805494433</v>
+        <v>0.7477794831586778</v>
       </c>
       <c r="W27" t="n">
-        <v>0.7494184761859286</v>
+        <v>0.7480858761690661</v>
       </c>
       <c r="X27" t="n">
-        <v>0.007360793528821919</v>
+        <v>0.008263025934763754</v>
       </c>
       <c r="Y27" t="n">
         <v>36</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.7265445862978229</v>
+        <v>0.7196912301723765</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.7124398278350669</v>
+        <v>0.6994449234088074</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.7140328733648952</v>
+        <v>0.7362755996176639</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.7246188866277966</v>
+        <v>0.7197379207328581</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.7088721331269549</v>
+        <v>0.7121016962205182</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.7173016614505072</v>
+        <v>0.7174502740304448</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.006990748077834308</v>
+        <v>0.01197871471341451</v>
       </c>
       <c r="AG27" t="n">
         <v>36</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.7277777777777777</v>
+        <v>0.7240740740740741</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.7185185185185186</v>
+        <v>0.7046296296296296</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.7185185185185186</v>
+        <v>0.7388888888888889</v>
       </c>
       <c r="AK27" t="n">
-        <v>0.7314814814814815</v>
+        <v>0.7268518518518519</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.7138888888888889</v>
+        <v>0.7175925925925926</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.722037037037037</v>
+        <v>0.7224074074074075</v>
       </c>
       <c r="AN27" t="n">
-        <v>0.006531552625388286</v>
+        <v>0.0112552380733502</v>
       </c>
       <c r="AO27" t="n">
         <v>36</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.9092734053497943</v>
+        <v>0.9104668209876543</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.9085931069958848</v>
+        <v>0.8952096193415637</v>
       </c>
       <c r="AR27" t="n">
-        <v>0.9042496141975308</v>
+        <v>0.9063168724279835</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.9045743312757203</v>
+        <v>0.9114493312757203</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.8967959104938271</v>
+        <v>0.9041087962962964</v>
       </c>
       <c r="AU27" t="n">
-        <v>0.9046972736625515</v>
+        <v>0.9055102880658437</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.004444447149675085</v>
+        <v>0.005806168900996423</v>
       </c>
       <c r="AW27" t="n">
         <v>36</v>
@@ -4606,16 +4606,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2634077072143555</v>
+        <v>0.2800727844238281</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02337586280185072</v>
+        <v>0.03458708862775571</v>
       </c>
       <c r="D28" t="n">
-        <v>77.76874566078186</v>
+        <v>93.64142870903015</v>
       </c>
       <c r="E28" t="n">
-        <v>1.795551566334088</v>
+        <v>2.95260000814453</v>
       </c>
       <c r="F28" t="n">
         <v>21</v>
@@ -4632,121 +4632,121 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>0.7907407407407407</v>
+        <v>0.7787037037037038</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7574074074074074</v>
+        <v>0.736111111111111</v>
       </c>
       <c r="L28" t="n">
-        <v>0.7749999999999999</v>
+        <v>0.7787037037037036</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7537037037037037</v>
+        <v>0.7824074074074074</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7611111111111111</v>
+        <v>0.7601851851851852</v>
       </c>
       <c r="O28" t="n">
-        <v>0.7675925925925926</v>
+        <v>0.7672222222222222</v>
       </c>
       <c r="P28" t="n">
-        <v>0.01363345356985627</v>
+        <v>0.01738769569526743</v>
       </c>
       <c r="Q28" t="n">
         <v>21</v>
       </c>
       <c r="R28" t="n">
-        <v>0.8048833684358945</v>
+        <v>0.7963694779116466</v>
       </c>
       <c r="S28" t="n">
-        <v>0.7812398294156226</v>
+        <v>0.7493297903153016</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7905059286895711</v>
+        <v>0.7976825262479093</v>
       </c>
       <c r="U28" t="n">
-        <v>0.7714315125395194</v>
+        <v>0.8016339869281045</v>
       </c>
       <c r="V28" t="n">
-        <v>0.7863795736227243</v>
+        <v>0.7808634142596441</v>
       </c>
       <c r="W28" t="n">
-        <v>0.7868880425406664</v>
+        <v>0.7851758391325212</v>
       </c>
       <c r="X28" t="n">
-        <v>0.01102711227914807</v>
+        <v>0.01926718258942765</v>
       </c>
       <c r="Y28" t="n">
         <v>21</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.7883481556377241</v>
+        <v>0.7764921558258417</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.7554519671212621</v>
+        <v>0.7315659404680925</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.7714927592161777</v>
+        <v>0.7744737442882</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.7481664061579375</v>
+        <v>0.7784627525252525</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.7564103633383561</v>
+        <v>0.7561769336627503</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.7639739302942915</v>
+        <v>0.7634343053540273</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.01435510271777827</v>
+        <v>0.01781287747486256</v>
       </c>
       <c r="AG28" t="n">
         <v>21</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.7907407407407407</v>
+        <v>0.7787037037037037</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.7574074074074074</v>
+        <v>0.7361111111111112</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.775</v>
+        <v>0.7787037037037037</v>
       </c>
       <c r="AK28" t="n">
-        <v>0.7537037037037037</v>
+        <v>0.7824074074074074</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.7611111111111111</v>
+        <v>0.7601851851851852</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.7675925925925926</v>
+        <v>0.7672222222222222</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.01363345356985628</v>
+        <v>0.01738769569526739</v>
       </c>
       <c r="AO28" t="n">
         <v>21</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.937854938271605</v>
+        <v>0.9362660751028806</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.9316685956790124</v>
+        <v>0.9211863425925926</v>
       </c>
       <c r="AR28" t="n">
-        <v>0.9371707818930042</v>
+        <v>0.9360776748971192</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.929571116255144</v>
+        <v>0.9425758744855969</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.9304417438271604</v>
+        <v>0.9338445216049384</v>
       </c>
       <c r="AU28" t="n">
-        <v>0.9333414351851852</v>
+        <v>0.9339900977366256</v>
       </c>
       <c r="AV28" t="n">
-        <v>0.003477283800303015</v>
+        <v>0.007031514089502555</v>
       </c>
       <c r="AW28" t="n">
         <v>21</v>
@@ -4757,16 +4757,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2757764339447021</v>
+        <v>0.3131453037261963</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04910220142681136</v>
+        <v>0.04514511449096578</v>
       </c>
       <c r="D29" t="n">
-        <v>3.979469156265259</v>
+        <v>5.324917364120483</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1841822144732793</v>
+        <v>0.5545602170223104</v>
       </c>
       <c r="F29" t="n">
         <v>21</v>
@@ -4783,121 +4783,121 @@
         </is>
       </c>
       <c r="J29" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.6833333333333335</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.7185185185185184</v>
+      </c>
+      <c r="M29" t="n">
         <v>0.7129629629629629</v>
       </c>
-      <c r="K29" t="n">
-        <v>0.6888888888888888</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.7157407407407407</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.7037037037037037</v>
-      </c>
       <c r="N29" t="n">
-        <v>0.6833333333333332</v>
+        <v>0.6981481481481481</v>
       </c>
       <c r="O29" t="n">
-        <v>0.7009259259259258</v>
+        <v>0.7025925925925927</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01285670737608134</v>
+        <v>0.01231725122097467</v>
       </c>
       <c r="Q29" t="n">
         <v>41</v>
       </c>
       <c r="R29" t="n">
-        <v>0.7516752085717603</v>
+        <v>0.7261500559061534</v>
       </c>
       <c r="S29" t="n">
-        <v>0.7269602773308819</v>
+        <v>0.7178436628724763</v>
       </c>
       <c r="T29" t="n">
-        <v>0.7508839735541143</v>
+        <v>0.7480445258136795</v>
       </c>
       <c r="U29" t="n">
-        <v>0.7385433118278844</v>
+        <v>0.7541955354267255</v>
       </c>
       <c r="V29" t="n">
-        <v>0.7187312367228685</v>
+        <v>0.7381730118959465</v>
       </c>
       <c r="W29" t="n">
-        <v>0.7373588016015018</v>
+        <v>0.7368813583829963</v>
       </c>
       <c r="X29" t="n">
-        <v>0.01299544789283209</v>
+        <v>0.01344366100275777</v>
       </c>
       <c r="Y29" t="n">
         <v>41</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.7071587900292569</v>
+        <v>0.6903447891450311</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.6810202267170483</v>
+        <v>0.6725570457762785</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.7040426854814537</v>
+        <v>0.7117676893296698</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.6954025759305543</v>
+        <v>0.7026479249889722</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.6758822835680568</v>
+        <v>0.6888953993875044</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.692701312345274</v>
+        <v>0.6932425697254913</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.01236341151152773</v>
+        <v>0.01331785784031973</v>
       </c>
       <c r="AG29" t="n">
         <v>41</v>
       </c>
       <c r="AH29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.6833333333333333</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0.7185185185185186</v>
+      </c>
+      <c r="AK29" t="n">
         <v>0.7129629629629629</v>
       </c>
-      <c r="AI29" t="n">
-        <v>0.6888888888888889</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0.7157407407407408</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0.7037037037037037</v>
-      </c>
       <c r="AL29" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6981481481481482</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.700925925925926</v>
+        <v>0.7025925925925927</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.01285670737608132</v>
+        <v>0.01231725122097473</v>
       </c>
       <c r="AO29" t="n">
         <v>41</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.903047839506173</v>
+        <v>0.9026613940329219</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.8925495113168723</v>
+        <v>0.8887088477366255</v>
       </c>
       <c r="AR29" t="n">
-        <v>0.9016467335390946</v>
+        <v>0.899343492798354</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.8966512345679013</v>
+        <v>0.9009979423868312</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.8823270318930042</v>
+        <v>0.8929539609053498</v>
       </c>
       <c r="AU29" t="n">
-        <v>0.8952444701646091</v>
+        <v>0.8969331275720165</v>
       </c>
       <c r="AV29" t="n">
-        <v>0.007456320140326931</v>
+        <v>0.005265323595414389</v>
       </c>
       <c r="AW29" t="n">
         <v>41</v>
@@ -4908,16 +4908,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2367954254150391</v>
+        <v>0.3531685829162597</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01432251085712581</v>
+        <v>0.05468707796676121</v>
       </c>
       <c r="D30" t="n">
-        <v>76.52746591567993</v>
+        <v>94.16484513282776</v>
       </c>
       <c r="E30" t="n">
-        <v>3.163655603711248</v>
+        <v>2.62703306251084</v>
       </c>
       <c r="F30" t="n">
         <v>21</v>
@@ -4934,121 +4934,121 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0.762037037037037</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7277777777777779</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L30" t="n">
-        <v>0.773148148148148</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="M30" t="n">
-        <v>0.7324074074074075</v>
+        <v>0.762962962962963</v>
       </c>
       <c r="N30" t="n">
-        <v>0.7435185185185186</v>
+        <v>0.75</v>
       </c>
       <c r="O30" t="n">
-        <v>0.7477777777777778</v>
+        <v>0.745925925925926</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01732842602265115</v>
+        <v>0.01366611461295933</v>
       </c>
       <c r="Q30" t="n">
         <v>26</v>
       </c>
       <c r="R30" t="n">
-        <v>0.7813981618937653</v>
+        <v>0.7774139119599887</v>
       </c>
       <c r="S30" t="n">
-        <v>0.7547027678141663</v>
+        <v>0.7399304975917419</v>
       </c>
       <c r="T30" t="n">
-        <v>0.793337196624481</v>
+        <v>0.7654061942453406</v>
       </c>
       <c r="U30" t="n">
-        <v>0.7546655359391462</v>
+        <v>0.7933287735640276</v>
       </c>
       <c r="V30" t="n">
-        <v>0.7769187125113209</v>
+        <v>0.7725480931689576</v>
       </c>
       <c r="W30" t="n">
-        <v>0.772204474956576</v>
+        <v>0.7697254941060112</v>
       </c>
       <c r="X30" t="n">
-        <v>0.01527916211754132</v>
+        <v>0.01749623847752673</v>
       </c>
       <c r="Y30" t="n">
         <v>26</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.759299236911177</v>
+        <v>0.7486513108300558</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.7243585156992781</v>
+        <v>0.7137361177973943</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.7690142738754749</v>
+        <v>0.7371380319453938</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.7252018565068122</v>
+        <v>0.7567353276104694</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.7388562225267753</v>
+        <v>0.7445360116441092</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.7433460211039036</v>
+        <v>0.7401593599654845</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.0180180945530815</v>
+        <v>0.01465160170389852</v>
       </c>
       <c r="AG30" t="n">
         <v>31</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.7620370370370371</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.7277777777777777</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.7731481481481481</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.7324074074074074</v>
+        <v>0.762962962962963</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.7435185185185185</v>
+        <v>0.75</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.7477777777777778</v>
+        <v>0.745925925925926</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.01732842602265125</v>
+        <v>0.01366611461295933</v>
       </c>
       <c r="AO30" t="n">
         <v>26</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.9274697788065843</v>
+        <v>0.9304963991769547</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.9222993827160494</v>
+        <v>0.9120248199588478</v>
       </c>
       <c r="AR30" t="n">
-        <v>0.9290689300411522</v>
+        <v>0.9265354938271605</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.9215052726337448</v>
+        <v>0.9313271604938271</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.920889274691358</v>
+        <v>0.9264737654320987</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.9242465277777777</v>
+        <v>0.9253715277777778</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.003353264460995498</v>
+        <v>0.006963307006317976</v>
       </c>
       <c r="AW30" t="n">
         <v>26</v>
@@ -5059,16 +5059,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2541968822479248</v>
+        <v>0.3605422019958496</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01801496036212911</v>
+        <v>0.04885187540483269</v>
       </c>
       <c r="D31" t="n">
-        <v>3.943756723403931</v>
+        <v>5.452553033828735</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1744506602613516</v>
+        <v>0.2242654790976312</v>
       </c>
       <c r="F31" t="n">
         <v>21</v>
@@ -5085,121 +5085,121 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6722222222222222</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6731481481481482</v>
+        <v>0.6722222222222222</v>
       </c>
       <c r="L31" t="n">
-        <v>0.7092592592592593</v>
+        <v>0.688888888888889</v>
       </c>
       <c r="M31" t="n">
-        <v>0.688888888888889</v>
+        <v>0.687962962962963</v>
       </c>
       <c r="N31" t="n">
-        <v>0.6638888888888889</v>
+        <v>0.6870370370370371</v>
       </c>
       <c r="O31" t="n">
-        <v>0.6887037037037038</v>
+        <v>0.6816666666666666</v>
       </c>
       <c r="P31" t="n">
-        <v>0.01825178270790175</v>
+        <v>0.007733560376970842</v>
       </c>
       <c r="Q31" t="n">
         <v>46</v>
       </c>
       <c r="R31" t="n">
-        <v>0.744028433639785</v>
+        <v>0.7060196103779638</v>
       </c>
       <c r="S31" t="n">
-        <v>0.7241766433845239</v>
+        <v>0.7066478428978429</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7445346184047046</v>
+        <v>0.72206970758899</v>
       </c>
       <c r="U31" t="n">
-        <v>0.7329642258673984</v>
+        <v>0.7360964842439991</v>
       </c>
       <c r="V31" t="n">
-        <v>0.7073659964277503</v>
+        <v>0.7315388404976783</v>
       </c>
       <c r="W31" t="n">
-        <v>0.7306139835448324</v>
+        <v>0.7204744971212947</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0138648003127501</v>
+        <v>0.01240266898877924</v>
       </c>
       <c r="Y31" t="n">
         <v>46</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.7002741469913</v>
+        <v>0.6588697788681112</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.6641263728611273</v>
+        <v>0.660753842228558</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.6974666003489407</v>
+        <v>0.6797170204555553</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.6782835702044007</v>
+        <v>0.6773815852763221</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.6553007426235504</v>
+        <v>0.6770327410029556</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.6790902866058637</v>
+        <v>0.6707509935663004</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.01775926100046044</v>
+        <v>0.008999122546514922</v>
       </c>
       <c r="AG31" t="n">
         <v>46</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6722222222222223</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.6731481481481482</v>
+        <v>0.6722222222222223</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.7092592592592593</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.6888888888888889</v>
+        <v>0.687962962962963</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.6638888888888889</v>
+        <v>0.687037037037037</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.6887037037037038</v>
+        <v>0.6816666666666666</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.01825178270790175</v>
+        <v>0.007733560376970751</v>
       </c>
       <c r="AO31" t="n">
         <v>46</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.8962229938271604</v>
+        <v>0.8929391718106996</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.884710005144033</v>
+        <v>0.8792791923868313</v>
       </c>
       <c r="AR31" t="n">
-        <v>0.8975456532921812</v>
+        <v>0.88943158436214</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.8848784722222223</v>
+        <v>0.895985725308642</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.8755838477366256</v>
+        <v>0.8835210905349795</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.8877881944444445</v>
+        <v>0.8882313528806585</v>
       </c>
       <c r="AV31" t="n">
-        <v>0.008163842908045844</v>
+        <v>0.006100199264145799</v>
       </c>
       <c r="AW31" t="n">
         <v>46</v>
@@ -5210,16 +5210,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2516827583312988</v>
+        <v>0.3709929466247558</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01394304966239768</v>
+        <v>0.05080387129465944</v>
       </c>
       <c r="D32" t="n">
-        <v>72.98012256622314</v>
+        <v>94.70540719032287</v>
       </c>
       <c r="E32" t="n">
-        <v>1.029740331666636</v>
+        <v>1.860339385464065</v>
       </c>
       <c r="F32" t="n">
         <v>31</v>
@@ -5236,121 +5236,121 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0.8944444444444445</v>
+        <v>0.8935185185185185</v>
       </c>
       <c r="K32" t="n">
+        <v>0.8796296296296297</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.8768518518518519</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.9018518518518519</v>
+      </c>
+      <c r="N32" t="n">
         <v>0.8870370370370372</v>
       </c>
-      <c r="L32" t="n">
-        <v>0.8824074074074074</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.8824074074074074</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0.8972222222222221</v>
-      </c>
       <c r="O32" t="n">
-        <v>0.8887037037037038</v>
+        <v>0.8877777777777778</v>
       </c>
       <c r="P32" t="n">
-        <v>0.006125124225385614</v>
+        <v>0.009136219543365933</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>0.8967748675188513</v>
+        <v>0.8950751252566641</v>
       </c>
       <c r="S32" t="n">
-        <v>0.8893967209153474</v>
+        <v>0.8836035804697705</v>
       </c>
       <c r="T32" t="n">
-        <v>0.8873136323159004</v>
+        <v>0.8795774388446801</v>
       </c>
       <c r="U32" t="n">
-        <v>0.8834470060689573</v>
+        <v>0.9047606316243662</v>
       </c>
       <c r="V32" t="n">
-        <v>0.9040121066205434</v>
+        <v>0.8924087907666154</v>
       </c>
       <c r="W32" t="n">
-        <v>0.89218886668792</v>
+        <v>0.8910851133924194</v>
       </c>
       <c r="X32" t="n">
-        <v>0.007332182777379058</v>
+        <v>0.008866702022166374</v>
       </c>
       <c r="Y32" t="n">
         <v>1</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.894552834863128</v>
+        <v>0.893424572874942</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.8869312948260316</v>
+        <v>0.8788459083365249</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.882160548735221</v>
+        <v>0.8766809014340892</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.8818070989863367</v>
+        <v>0.9013987582747477</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.8975508400377579</v>
+        <v>0.8867420248317943</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.8886005234896951</v>
+        <v>0.8874184331504196</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.00641791855120513</v>
+        <v>0.009173478099717185</v>
       </c>
       <c r="AG32" t="n">
         <v>1</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.8944444444444445</v>
+        <v>0.8935185185185185</v>
       </c>
       <c r="AI32" t="n">
+        <v>0.8796296296296297</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.8768518518518519</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.9018518518518519</v>
+      </c>
+      <c r="AL32" t="n">
         <v>0.8870370370370371</v>
       </c>
-      <c r="AJ32" t="n">
-        <v>0.8824074074074074</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0.8824074074074074</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>0.8972222222222223</v>
-      </c>
       <c r="AM32" t="n">
-        <v>0.8887037037037038</v>
+        <v>0.8877777777777778</v>
       </c>
       <c r="AN32" t="n">
-        <v>0.00612512422538565</v>
+        <v>0.009136219543365935</v>
       </c>
       <c r="AO32" t="n">
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.9755883487654322</v>
+        <v>0.9800880915637861</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.9783307613168725</v>
+        <v>0.9762127057613169</v>
       </c>
       <c r="AR32" t="n">
-        <v>0.9760866769547324</v>
+        <v>0.972477494855967</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.9776228137860082</v>
+        <v>0.9809561471193415</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.9797614454732511</v>
+        <v>0.978545524691358</v>
       </c>
       <c r="AU32" t="n">
-        <v>0.9774780092592593</v>
+        <v>0.9776559927983539</v>
       </c>
       <c r="AV32" t="n">
-        <v>0.001514520236223371</v>
+        <v>0.003049501872319666</v>
       </c>
       <c r="AW32" t="n">
         <v>1</v>
@@ -5361,16 +5361,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2433887004852295</v>
+        <v>0.3288169384002685</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02228760477868643</v>
+        <v>0.05052665307493173</v>
       </c>
       <c r="D33" t="n">
-        <v>3.720958471298218</v>
+        <v>5.220978689193726</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1023384391275657</v>
+        <v>0.4478785200220645</v>
       </c>
       <c r="F33" t="n">
         <v>31</v>
@@ -5387,121 +5387,121 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>0.8425925925925926</v>
+        <v>0.8555555555555555</v>
       </c>
       <c r="K33" t="n">
-        <v>0.8388888888888889</v>
+        <v>0.8314814814814815</v>
       </c>
       <c r="L33" t="n">
-        <v>0.8083333333333332</v>
+        <v>0.8101851851851851</v>
       </c>
       <c r="M33" t="n">
-        <v>0.8092592592592592</v>
+        <v>0.8453703703703704</v>
       </c>
       <c r="N33" t="n">
-        <v>0.8277777777777778</v>
+        <v>0.8314814814814815</v>
       </c>
       <c r="O33" t="n">
-        <v>0.8253703703703703</v>
+        <v>0.8348148148148148</v>
       </c>
       <c r="P33" t="n">
-        <v>0.01438735155522598</v>
+        <v>0.01529992782647027</v>
       </c>
       <c r="Q33" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R33" t="n">
-        <v>0.8472904886908251</v>
+        <v>0.8604329787308083</v>
       </c>
       <c r="S33" t="n">
-        <v>0.8465959059785044</v>
+        <v>0.8400590148376316</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8216602094992108</v>
+        <v>0.8164092513185194</v>
       </c>
       <c r="U33" t="n">
-        <v>0.8167807042562424</v>
+        <v>0.8546184964424762</v>
       </c>
       <c r="V33" t="n">
-        <v>0.837338435023219</v>
+        <v>0.8394873677245794</v>
       </c>
       <c r="W33" t="n">
-        <v>0.8339331486896004</v>
+        <v>0.842201421810803</v>
       </c>
       <c r="X33" t="n">
-        <v>0.01261103735217984</v>
+        <v>0.0152562476779882</v>
       </c>
       <c r="Y33" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.8433675851918564</v>
+        <v>0.855833026010731</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.8391336528667172</v>
+        <v>0.830686107987455</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.8085591089251332</v>
+        <v>0.8106773817691794</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.8089646200423731</v>
+        <v>0.8454388039127227</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.8277219010206457</v>
+        <v>0.8317197892596324</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.8255493736093451</v>
+        <v>0.8348710217879441</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.01463191256952439</v>
+        <v>0.01525686486402442</v>
       </c>
       <c r="AG33" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.8425925925925926</v>
+        <v>0.8555555555555555</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.8388888888888889</v>
+        <v>0.8314814814814815</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.8101851851851852</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.8092592592592592</v>
+        <v>0.8453703703703703</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.8277777777777777</v>
+        <v>0.8314814814814815</v>
       </c>
       <c r="AM33" t="n">
-        <v>0.8253703703703703</v>
+        <v>0.8348148148148148</v>
       </c>
       <c r="AN33" t="n">
-        <v>0.01438735155522595</v>
+        <v>0.01529992782647023</v>
       </c>
       <c r="AO33" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.9559304269547325</v>
+        <v>0.9632233796296297</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.9611850565843622</v>
+        <v>0.9591698816872428</v>
       </c>
       <c r="AR33" t="n">
-        <v>0.9503626543209877</v>
+        <v>0.9504243827160495</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.9523263888888889</v>
+        <v>0.9564210390946503</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.9557143775720164</v>
+        <v>0.9503485082304527</v>
       </c>
       <c r="AU33" t="n">
-        <v>0.9551037808641976</v>
+        <v>0.9559174382716049</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.003694056674348618</v>
+        <v>0.005007902200072628</v>
       </c>
       <c r="AW33" t="n">
         <v>11</v>
@@ -5512,16 +5512,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2434323310852051</v>
+        <v>0.3316977500915527</v>
       </c>
       <c r="C34" t="n">
-        <v>0.007770981363132983</v>
+        <v>0.06895400751041372</v>
       </c>
       <c r="D34" t="n">
-        <v>71.82032537460327</v>
+        <v>94.10227603912354</v>
       </c>
       <c r="E34" t="n">
-        <v>1.156805465125591</v>
+        <v>0.9604544068059385</v>
       </c>
       <c r="F34" t="n">
         <v>31</v>
@@ -5538,121 +5538,121 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>0.8509259259259259</v>
+        <v>0.8342592592592593</v>
       </c>
       <c r="K34" t="n">
-        <v>0.8416666666666668</v>
+        <v>0.8055555555555555</v>
       </c>
       <c r="L34" t="n">
+        <v>0.8268518518518518</v>
+      </c>
+      <c r="M34" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="M34" t="n">
-        <v>0.8185185185185184</v>
-      </c>
       <c r="N34" t="n">
-        <v>0.813888888888889</v>
+        <v>0.8425925925925926</v>
       </c>
       <c r="O34" t="n">
-        <v>0.8316666666666667</v>
+        <v>0.8285185185185184</v>
       </c>
       <c r="P34" t="n">
-        <v>0.01387530199624384</v>
+        <v>0.01252432475474886</v>
       </c>
       <c r="Q34" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8570509829361127</v>
+        <v>0.8416067378070009</v>
       </c>
       <c r="S34" t="n">
-        <v>0.8507871336332232</v>
+        <v>0.8131257386465688</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8415483850334508</v>
+        <v>0.8340803008045411</v>
       </c>
       <c r="U34" t="n">
-        <v>0.8249033337772333</v>
+        <v>0.8470414997317012</v>
       </c>
       <c r="V34" t="n">
-        <v>0.8299703451590262</v>
+        <v>0.8518969119311247</v>
       </c>
       <c r="W34" t="n">
-        <v>0.8408520361078093</v>
+        <v>0.8375502377841872</v>
       </c>
       <c r="X34" t="n">
-        <v>0.01211915217287146</v>
+        <v>0.01357175689169282</v>
       </c>
       <c r="Y34" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.8513415596090206</v>
+        <v>0.8342306056668503</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.8413385543463369</v>
+        <v>0.8036918401776564</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.8323083908035076</v>
+        <v>0.8260294883565669</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.8172902135037803</v>
+        <v>0.8318557119197122</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.812777862195294</v>
+        <v>0.8426686507066096</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.831011316091588</v>
+        <v>0.8276952593654791</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.01443870182163328</v>
+        <v>0.01313896107574704</v>
       </c>
       <c r="AG34" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.850925925925926</v>
+        <v>0.8342592592592593</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="AJ34" t="n">
+        <v>0.8268518518518518</v>
+      </c>
+      <c r="AK34" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="AK34" t="n">
-        <v>0.8185185185185185</v>
-      </c>
       <c r="AL34" t="n">
-        <v>0.8138888888888889</v>
+        <v>0.8425925925925926</v>
       </c>
       <c r="AM34" t="n">
-        <v>0.8316666666666667</v>
+        <v>0.8285185185185184</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.01387530199624386</v>
+        <v>0.01252432475474881</v>
       </c>
       <c r="AO34" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.9582336676954734</v>
+        <v>0.9586033950617283</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.9604803240740741</v>
+        <v>0.9514197530864198</v>
       </c>
       <c r="AR34" t="n">
-        <v>0.9585847479423869</v>
+        <v>0.9564152520576132</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.9547100051440328</v>
+        <v>0.9660069444444445</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.9544077932098766</v>
+        <v>0.9623212448559672</v>
       </c>
       <c r="AU34" t="n">
-        <v>0.9572833076131687</v>
+        <v>0.9589533179012346</v>
       </c>
       <c r="AV34" t="n">
-        <v>0.002354073667031488</v>
+        <v>0.004988294346220357</v>
       </c>
       <c r="AW34" t="n">
         <v>6</v>
@@ -5663,16 +5663,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.239925479888916</v>
+        <v>0.3050682067871094</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0086094207466601</v>
+        <v>0.03943098621181069</v>
       </c>
       <c r="D35" t="n">
-        <v>3.7084068775177</v>
+        <v>5.225908470153809</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03463831463495853</v>
+        <v>0.0996720109888517</v>
       </c>
       <c r="F35" t="n">
         <v>31</v>
@@ -5689,121 +5689,121 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>0.762037037037037</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="K35" t="n">
-        <v>0.7444444444444445</v>
+        <v>0.737962962962963</v>
       </c>
       <c r="L35" t="n">
-        <v>0.7435185185185186</v>
+        <v>0.7509259259259259</v>
       </c>
       <c r="M35" t="n">
-        <v>0.7518518518518519</v>
+        <v>0.7481481481481481</v>
       </c>
       <c r="N35" t="n">
-        <v>0.7287037037037037</v>
+        <v>0.7314814814814815</v>
       </c>
       <c r="O35" t="n">
-        <v>0.7461111111111112</v>
+        <v>0.7442592592592592</v>
       </c>
       <c r="P35" t="n">
-        <v>0.01094630867120859</v>
+        <v>0.008185939298259354</v>
       </c>
       <c r="Q35" t="n">
         <v>31</v>
       </c>
       <c r="R35" t="n">
-        <v>0.7825453640049845</v>
+        <v>0.7687888023019269</v>
       </c>
       <c r="S35" t="n">
-        <v>0.7692753681174658</v>
+        <v>0.7572826203652193</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7620166300821776</v>
+        <v>0.7650525913237778</v>
       </c>
       <c r="U35" t="n">
-        <v>0.7705232695487835</v>
+        <v>0.7704526474063957</v>
       </c>
       <c r="V35" t="n">
-        <v>0.7474765515962482</v>
+        <v>0.7529529862105</v>
       </c>
       <c r="W35" t="n">
-        <v>0.7663674366699319</v>
+        <v>0.7629059295215639</v>
       </c>
       <c r="X35" t="n">
-        <v>0.01151735561585139</v>
+        <v>0.006735755136543216</v>
       </c>
       <c r="Y35" t="n">
         <v>31</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.7633273994304197</v>
+        <v>0.7507554315283019</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.7420741652909778</v>
+        <v>0.7358851146922948</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.7406768257514527</v>
+        <v>0.7493834521034647</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.7502579935230796</v>
+        <v>0.746070510656188</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.7266585952167887</v>
+        <v>0.729482433116913</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.7445989958425437</v>
+        <v>0.7423153884194325</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.01205316155910008</v>
+        <v>0.008262275194357382</v>
       </c>
       <c r="AG35" t="n">
         <v>26</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.7620370370370371</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.7444444444444445</v>
+        <v>0.7379629629629629</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.7435185185185185</v>
+        <v>0.7509259259259259</v>
       </c>
       <c r="AK35" t="n">
-        <v>0.7518518518518519</v>
+        <v>0.7481481481481481</v>
       </c>
       <c r="AL35" t="n">
-        <v>0.7287037037037037</v>
+        <v>0.7314814814814815</v>
       </c>
       <c r="AM35" t="n">
-        <v>0.7461111111111112</v>
+        <v>0.7442592592592592</v>
       </c>
       <c r="AN35" t="n">
-        <v>0.01094630867120863</v>
+        <v>0.008185939298259372</v>
       </c>
       <c r="AO35" t="n">
         <v>31</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.9230484825102879</v>
+        <v>0.9262770061728395</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.9270318930041151</v>
+        <v>0.9178575102880658</v>
       </c>
       <c r="AR35" t="n">
-        <v>0.9179809670781892</v>
+        <v>0.9187506430041151</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.9172935956790124</v>
+        <v>0.9247022890946504</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.9140412808641974</v>
+        <v>0.918966049382716</v>
       </c>
       <c r="AU35" t="n">
-        <v>0.9198792438271605</v>
+        <v>0.9213106995884773</v>
       </c>
       <c r="AV35" t="n">
-        <v>0.004595112764619743</v>
+        <v>0.003468223496698309</v>
       </c>
       <c r="AW35" t="n">
         <v>31</v>
@@ -5814,16 +5814,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.238799238204956</v>
+        <v>0.3148405075073242</v>
       </c>
       <c r="C36" t="n">
-        <v>0.00830411581016911</v>
+        <v>0.04184725628956711</v>
       </c>
       <c r="D36" t="n">
-        <v>73.35352106094361</v>
+        <v>94.14691419601441</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8024614641824932</v>
+        <v>1.410663490044012</v>
       </c>
       <c r="F36" t="n">
         <v>31</v>
@@ -5840,121 +5840,121 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>0.7981481481481482</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="K36" t="n">
+        <v>0.7666666666666666</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.8009259259259259</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="N36" t="n">
         <v>0.7925925925925926</v>
       </c>
-      <c r="L36" t="n">
-        <v>0.8037037037037038</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.7777777777777777</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.7703703703703703</v>
-      </c>
       <c r="O36" t="n">
-        <v>0.7885185185185185</v>
+        <v>0.7903703703703704</v>
       </c>
       <c r="P36" t="n">
-        <v>0.01252706261132435</v>
+        <v>0.01243087884950995</v>
       </c>
       <c r="Q36" t="n">
         <v>16</v>
       </c>
       <c r="R36" t="n">
-        <v>0.8089349338258923</v>
+        <v>0.8133160953905397</v>
       </c>
       <c r="S36" t="n">
-        <v>0.809135238694875</v>
+        <v>0.7817227046102883</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8134620504596292</v>
+        <v>0.81644293537923</v>
       </c>
       <c r="U36" t="n">
-        <v>0.7934970884754078</v>
+        <v>0.8121742112482853</v>
       </c>
       <c r="V36" t="n">
-        <v>0.7899103228151479</v>
+        <v>0.8064613421963275</v>
       </c>
       <c r="W36" t="n">
-        <v>0.8029879268541904</v>
+        <v>0.8060234577649341</v>
       </c>
       <c r="X36" t="n">
-        <v>0.009422986157521985</v>
+        <v>0.01257217715723458</v>
       </c>
       <c r="Y36" t="n">
         <v>16</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.7968394030681397</v>
+        <v>0.7988367912950073</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.7912515786871811</v>
+        <v>0.7626821671340634</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.8020169177952697</v>
+        <v>0.7996737775046751</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.7731601810024422</v>
+        <v>0.7887895637676147</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.7669347252646052</v>
+        <v>0.7910452227263708</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.7860405611635276</v>
+        <v>0.7882055044855463</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.01363782108570043</v>
+        <v>0.01344909974500998</v>
       </c>
       <c r="AG36" t="n">
         <v>16</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.7981481481481482</v>
+        <v>0.8</v>
       </c>
       <c r="AI36" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.8009259259259259</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="AL36" t="n">
         <v>0.7925925925925926</v>
       </c>
-      <c r="AJ36" t="n">
-        <v>0.8037037037037037</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>0.7703703703703704</v>
-      </c>
       <c r="AM36" t="n">
-        <v>0.7885185185185184</v>
+        <v>0.7903703703703704</v>
       </c>
       <c r="AN36" t="n">
-        <v>0.01252706261132427</v>
+        <v>0.01243087884950992</v>
       </c>
       <c r="AO36" t="n">
         <v>16</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.9458802726337447</v>
+        <v>0.9440586419753085</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.942306455761317</v>
+        <v>0.9343634259259259</v>
       </c>
       <c r="AR36" t="n">
-        <v>0.9456230709876543</v>
+        <v>0.9431764403292182</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.9426170267489713</v>
+        <v>0.9524710648148148</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.9373849022633746</v>
+        <v>0.9458584104938271</v>
       </c>
       <c r="AU36" t="n">
-        <v>0.9427623456790124</v>
+        <v>0.943985596707819</v>
       </c>
       <c r="AV36" t="n">
-        <v>0.003067607167921673</v>
+        <v>0.005809592768584644</v>
       </c>
       <c r="AW36" t="n">
         <v>16</v>
@@ -5965,16 +5965,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.235599422454834</v>
+        <v>0.3030607223510742</v>
       </c>
       <c r="C37" t="n">
-        <v>0.008452764838744561</v>
+        <v>0.04932145372072572</v>
       </c>
       <c r="D37" t="n">
-        <v>3.691833591461182</v>
+        <v>5.304549217224121</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06627560773208944</v>
+        <v>0.2870548575394433</v>
       </c>
       <c r="F37" t="n">
         <v>31</v>
@@ -5991,121 +5991,121 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>0.7277777777777779</v>
+        <v>0.7240740740740742</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7185185185185184</v>
+        <v>0.7046296296296296</v>
       </c>
       <c r="L37" t="n">
-        <v>0.7185185185185184</v>
+        <v>0.7388888888888889</v>
       </c>
       <c r="M37" t="n">
-        <v>0.7314814814814814</v>
+        <v>0.7268518518518517</v>
       </c>
       <c r="N37" t="n">
-        <v>0.7138888888888889</v>
+        <v>0.7175925925925926</v>
       </c>
       <c r="O37" t="n">
-        <v>0.722037037037037</v>
+        <v>0.7224074074074074</v>
       </c>
       <c r="P37" t="n">
-        <v>0.006531552625388297</v>
+        <v>0.0112552380733502</v>
       </c>
       <c r="Q37" t="n">
         <v>36</v>
       </c>
       <c r="R37" t="n">
-        <v>0.7582029989053084</v>
+        <v>0.7485581699108922</v>
       </c>
       <c r="S37" t="n">
-        <v>0.7434540866031637</v>
+        <v>0.7329537810068051</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7490851044467631</v>
+        <v>0.7557894933010223</v>
       </c>
       <c r="U37" t="n">
-        <v>0.7569774104249642</v>
+        <v>0.755348453467933</v>
       </c>
       <c r="V37" t="n">
-        <v>0.7393727805494433</v>
+        <v>0.7477794831586778</v>
       </c>
       <c r="W37" t="n">
-        <v>0.7494184761859286</v>
+        <v>0.7480858761690661</v>
       </c>
       <c r="X37" t="n">
-        <v>0.007360793528821919</v>
+        <v>0.008263025934763754</v>
       </c>
       <c r="Y37" t="n">
         <v>36</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.7265445862978229</v>
+        <v>0.7196912301723765</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.7124398278350669</v>
+        <v>0.6994449234088074</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.7140328733648952</v>
+        <v>0.7362755996176639</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.7246188866277966</v>
+        <v>0.7197379207328581</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.7088721331269549</v>
+        <v>0.7121016962205182</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.7173016614505072</v>
+        <v>0.7174502740304448</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.006990748077834308</v>
+        <v>0.01197871471341451</v>
       </c>
       <c r="AG37" t="n">
         <v>36</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.7277777777777777</v>
+        <v>0.7240740740740741</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.7185185185185186</v>
+        <v>0.7046296296296296</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0.7185185185185186</v>
+        <v>0.7388888888888889</v>
       </c>
       <c r="AK37" t="n">
-        <v>0.7314814814814815</v>
+        <v>0.7268518518518519</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.7138888888888889</v>
+        <v>0.7175925925925926</v>
       </c>
       <c r="AM37" t="n">
-        <v>0.722037037037037</v>
+        <v>0.7224074074074075</v>
       </c>
       <c r="AN37" t="n">
-        <v>0.006531552625388286</v>
+        <v>0.0112552380733502</v>
       </c>
       <c r="AO37" t="n">
         <v>36</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.9092734053497943</v>
+        <v>0.9104668209876543</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.9085931069958848</v>
+        <v>0.8952096193415637</v>
       </c>
       <c r="AR37" t="n">
-        <v>0.9042496141975308</v>
+        <v>0.9063168724279835</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.9045743312757203</v>
+        <v>0.9114493312757203</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.8967959104938271</v>
+        <v>0.9041087962962964</v>
       </c>
       <c r="AU37" t="n">
-        <v>0.9046972736625515</v>
+        <v>0.9055102880658437</v>
       </c>
       <c r="AV37" t="n">
-        <v>0.004444447149675085</v>
+        <v>0.005806168900996423</v>
       </c>
       <c r="AW37" t="n">
         <v>36</v>
@@ -6116,16 +6116,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2418418884277344</v>
+        <v>0.3272549152374268</v>
       </c>
       <c r="C38" t="n">
-        <v>0.02299738823019018</v>
+        <v>0.0383936028995675</v>
       </c>
       <c r="D38" t="n">
-        <v>71.78517661094665</v>
+        <v>95.88242492675781</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8378276856566087</v>
+        <v>2.069066460230849</v>
       </c>
       <c r="F38" t="n">
         <v>31</v>
@@ -6142,121 +6142,121 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>0.7907407407407407</v>
+        <v>0.7787037037037038</v>
       </c>
       <c r="K38" t="n">
-        <v>0.7574074074074074</v>
+        <v>0.736111111111111</v>
       </c>
       <c r="L38" t="n">
-        <v>0.7749999999999999</v>
+        <v>0.7787037037037036</v>
       </c>
       <c r="M38" t="n">
-        <v>0.7537037037037037</v>
+        <v>0.7824074074074074</v>
       </c>
       <c r="N38" t="n">
-        <v>0.7611111111111111</v>
+        <v>0.7601851851851852</v>
       </c>
       <c r="O38" t="n">
-        <v>0.7675925925925926</v>
+        <v>0.7672222222222222</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01363345356985627</v>
+        <v>0.01738769569526743</v>
       </c>
       <c r="Q38" t="n">
         <v>21</v>
       </c>
       <c r="R38" t="n">
-        <v>0.8048833684358945</v>
+        <v>0.7963694779116466</v>
       </c>
       <c r="S38" t="n">
-        <v>0.7812398294156226</v>
+        <v>0.7493297903153016</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7905059286895711</v>
+        <v>0.7976825262479093</v>
       </c>
       <c r="U38" t="n">
-        <v>0.7714315125395194</v>
+        <v>0.8016339869281045</v>
       </c>
       <c r="V38" t="n">
-        <v>0.7863795736227243</v>
+        <v>0.7808634142596441</v>
       </c>
       <c r="W38" t="n">
-        <v>0.7868880425406664</v>
+        <v>0.7851758391325212</v>
       </c>
       <c r="X38" t="n">
-        <v>0.01102711227914807</v>
+        <v>0.01926718258942765</v>
       </c>
       <c r="Y38" t="n">
         <v>21</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.7883481556377241</v>
+        <v>0.7764921558258417</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.7554519671212621</v>
+        <v>0.7315659404680925</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.7714927592161777</v>
+        <v>0.7744737442882</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.7481664061579375</v>
+        <v>0.7784627525252525</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.7564103633383561</v>
+        <v>0.7561769336627503</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.7639739302942915</v>
+        <v>0.7634343053540273</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.01435510271777827</v>
+        <v>0.01781287747486256</v>
       </c>
       <c r="AG38" t="n">
         <v>21</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.7907407407407407</v>
+        <v>0.7787037037037037</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.7574074074074074</v>
+        <v>0.7361111111111112</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0.775</v>
+        <v>0.7787037037037037</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.7537037037037037</v>
+        <v>0.7824074074074074</v>
       </c>
       <c r="AL38" t="n">
-        <v>0.7611111111111111</v>
+        <v>0.7601851851851852</v>
       </c>
       <c r="AM38" t="n">
-        <v>0.7675925925925926</v>
+        <v>0.7672222222222222</v>
       </c>
       <c r="AN38" t="n">
-        <v>0.01363345356985628</v>
+        <v>0.01738769569526739</v>
       </c>
       <c r="AO38" t="n">
         <v>21</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.937854938271605</v>
+        <v>0.9362660751028806</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.9316685956790124</v>
+        <v>0.9211863425925926</v>
       </c>
       <c r="AR38" t="n">
-        <v>0.9371707818930042</v>
+        <v>0.9360776748971192</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.929571116255144</v>
+        <v>0.9425758744855969</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.9304417438271604</v>
+        <v>0.9338445216049384</v>
       </c>
       <c r="AU38" t="n">
-        <v>0.9333414351851852</v>
+        <v>0.9339900977366256</v>
       </c>
       <c r="AV38" t="n">
-        <v>0.003477283800303015</v>
+        <v>0.007031514089502555</v>
       </c>
       <c r="AW38" t="n">
         <v>21</v>
@@ -6267,16 +6267,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2438018321990967</v>
+        <v>0.343866777420044</v>
       </c>
       <c r="C39" t="n">
-        <v>0.007676352260749275</v>
+        <v>0.06513653469132155</v>
       </c>
       <c r="D39" t="n">
-        <v>3.702401828765869</v>
+        <v>5.304092884063721</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1529762053430781</v>
+        <v>0.3072476035663569</v>
       </c>
       <c r="F39" t="n">
         <v>31</v>
@@ -6293,121 +6293,121 @@
         </is>
       </c>
       <c r="J39" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.6833333333333335</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.7185185185185184</v>
+      </c>
+      <c r="M39" t="n">
         <v>0.7129629629629629</v>
       </c>
-      <c r="K39" t="n">
-        <v>0.6888888888888888</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.7157407407407407</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.7037037037037037</v>
-      </c>
       <c r="N39" t="n">
-        <v>0.6833333333333332</v>
+        <v>0.6981481481481481</v>
       </c>
       <c r="O39" t="n">
-        <v>0.7009259259259258</v>
+        <v>0.7025925925925927</v>
       </c>
       <c r="P39" t="n">
-        <v>0.01285670737608134</v>
+        <v>0.01231725122097467</v>
       </c>
       <c r="Q39" t="n">
         <v>41</v>
       </c>
       <c r="R39" t="n">
-        <v>0.7516752085717603</v>
+        <v>0.7261500559061534</v>
       </c>
       <c r="S39" t="n">
-        <v>0.7269602773308819</v>
+        <v>0.7178436628724763</v>
       </c>
       <c r="T39" t="n">
-        <v>0.7508839735541143</v>
+        <v>0.7480445258136795</v>
       </c>
       <c r="U39" t="n">
-        <v>0.7385433118278844</v>
+        <v>0.7541955354267255</v>
       </c>
       <c r="V39" t="n">
-        <v>0.7187312367228685</v>
+        <v>0.7381730118959465</v>
       </c>
       <c r="W39" t="n">
-        <v>0.7373588016015018</v>
+        <v>0.7368813583829963</v>
       </c>
       <c r="X39" t="n">
-        <v>0.01299544789283209</v>
+        <v>0.01344366100275777</v>
       </c>
       <c r="Y39" t="n">
         <v>41</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.7071587900292569</v>
+        <v>0.6903447891450311</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.6810202267170483</v>
+        <v>0.6725570457762785</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.7040426854814537</v>
+        <v>0.7117676893296698</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.6954025759305543</v>
+        <v>0.7026479249889722</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.6758822835680568</v>
+        <v>0.6888953993875044</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.692701312345274</v>
+        <v>0.6932425697254913</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.01236341151152773</v>
+        <v>0.01331785784031973</v>
       </c>
       <c r="AG39" t="n">
         <v>41</v>
       </c>
       <c r="AH39" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.6833333333333333</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.7185185185185186</v>
+      </c>
+      <c r="AK39" t="n">
         <v>0.7129629629629629</v>
       </c>
-      <c r="AI39" t="n">
-        <v>0.6888888888888889</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>0.7157407407407408</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0.7037037037037037</v>
-      </c>
       <c r="AL39" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6981481481481482</v>
       </c>
       <c r="AM39" t="n">
-        <v>0.700925925925926</v>
+        <v>0.7025925925925927</v>
       </c>
       <c r="AN39" t="n">
-        <v>0.01285670737608132</v>
+        <v>0.01231725122097473</v>
       </c>
       <c r="AO39" t="n">
         <v>41</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.903047839506173</v>
+        <v>0.9026613940329219</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.8925495113168723</v>
+        <v>0.8887088477366255</v>
       </c>
       <c r="AR39" t="n">
-        <v>0.9016467335390946</v>
+        <v>0.899343492798354</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.8966512345679013</v>
+        <v>0.9009979423868312</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.8823270318930042</v>
+        <v>0.8929539609053498</v>
       </c>
       <c r="AU39" t="n">
-        <v>0.8952444701646091</v>
+        <v>0.8969331275720165</v>
       </c>
       <c r="AV39" t="n">
-        <v>0.007456320140326931</v>
+        <v>0.005265323595414389</v>
       </c>
       <c r="AW39" t="n">
         <v>41</v>
@@ -6418,16 +6418,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2389945030212402</v>
+        <v>0.3080260276794434</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01287966831551273</v>
+        <v>0.02497666943216051</v>
       </c>
       <c r="D40" t="n">
-        <v>73.25980200767518</v>
+        <v>94.4476363658905</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6001527784928874</v>
+        <v>2.028153373089709</v>
       </c>
       <c r="F40" t="n">
         <v>31</v>
@@ -6444,121 +6444,121 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>0.762037037037037</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="K40" t="n">
-        <v>0.7277777777777779</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L40" t="n">
-        <v>0.773148148148148</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="M40" t="n">
-        <v>0.7324074074074075</v>
+        <v>0.762962962962963</v>
       </c>
       <c r="N40" t="n">
-        <v>0.7435185185185186</v>
+        <v>0.75</v>
       </c>
       <c r="O40" t="n">
-        <v>0.7477777777777778</v>
+        <v>0.745925925925926</v>
       </c>
       <c r="P40" t="n">
-        <v>0.01732842602265115</v>
+        <v>0.01366611461295933</v>
       </c>
       <c r="Q40" t="n">
         <v>26</v>
       </c>
       <c r="R40" t="n">
-        <v>0.7813981618937653</v>
+        <v>0.7774139119599887</v>
       </c>
       <c r="S40" t="n">
-        <v>0.7547027678141663</v>
+        <v>0.7399304975917419</v>
       </c>
       <c r="T40" t="n">
-        <v>0.793337196624481</v>
+        <v>0.7654061942453406</v>
       </c>
       <c r="U40" t="n">
-        <v>0.7546655359391462</v>
+        <v>0.7933287735640276</v>
       </c>
       <c r="V40" t="n">
-        <v>0.7769187125113209</v>
+        <v>0.7725480931689576</v>
       </c>
       <c r="W40" t="n">
-        <v>0.772204474956576</v>
+        <v>0.7697254941060112</v>
       </c>
       <c r="X40" t="n">
-        <v>0.01527916211754132</v>
+        <v>0.01749623847752673</v>
       </c>
       <c r="Y40" t="n">
         <v>26</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.759299236911177</v>
+        <v>0.7486513108300558</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.7243585156992781</v>
+        <v>0.7137361177973943</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.7690142738754749</v>
+        <v>0.7371380319453938</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.7252018565068122</v>
+        <v>0.7567353276104694</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.7388562225267753</v>
+        <v>0.7445360116441092</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.7433460211039036</v>
+        <v>0.7401593599654845</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.0180180945530815</v>
+        <v>0.01465160170389852</v>
       </c>
       <c r="AG40" t="n">
         <v>31</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.7620370370370371</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="AI40" t="n">
-        <v>0.7277777777777777</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0.7731481481481481</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="AK40" t="n">
-        <v>0.7324074074074074</v>
+        <v>0.762962962962963</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.7435185185185185</v>
+        <v>0.75</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.7477777777777778</v>
+        <v>0.745925925925926</v>
       </c>
       <c r="AN40" t="n">
-        <v>0.01732842602265125</v>
+        <v>0.01366611461295933</v>
       </c>
       <c r="AO40" t="n">
         <v>26</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.9274697788065843</v>
+        <v>0.9304963991769547</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.9222993827160494</v>
+        <v>0.9120248199588478</v>
       </c>
       <c r="AR40" t="n">
-        <v>0.9290689300411522</v>
+        <v>0.9265354938271605</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.9215052726337448</v>
+        <v>0.9313271604938271</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.920889274691358</v>
+        <v>0.9264737654320987</v>
       </c>
       <c r="AU40" t="n">
-        <v>0.9242465277777777</v>
+        <v>0.9253715277777778</v>
       </c>
       <c r="AV40" t="n">
-        <v>0.003353264460995498</v>
+        <v>0.006963307006317976</v>
       </c>
       <c r="AW40" t="n">
         <v>26</v>
@@ -6569,16 +6569,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2606375217437744</v>
+        <v>0.3092846393585205</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01133166833256457</v>
+        <v>0.07248751436238667</v>
       </c>
       <c r="D41" t="n">
-        <v>3.85976996421814</v>
+        <v>5.356949615478515</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2087483046785607</v>
+        <v>0.3056629253388281</v>
       </c>
       <c r="F41" t="n">
         <v>31</v>
@@ -6595,121 +6595,121 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6722222222222222</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6731481481481482</v>
+        <v>0.6722222222222222</v>
       </c>
       <c r="L41" t="n">
-        <v>0.7092592592592593</v>
+        <v>0.688888888888889</v>
       </c>
       <c r="M41" t="n">
-        <v>0.688888888888889</v>
+        <v>0.687962962962963</v>
       </c>
       <c r="N41" t="n">
-        <v>0.6638888888888889</v>
+        <v>0.6870370370370371</v>
       </c>
       <c r="O41" t="n">
-        <v>0.6887037037037038</v>
+        <v>0.6816666666666666</v>
       </c>
       <c r="P41" t="n">
-        <v>0.01825178270790175</v>
+        <v>0.007733560376970842</v>
       </c>
       <c r="Q41" t="n">
         <v>46</v>
       </c>
       <c r="R41" t="n">
-        <v>0.744028433639785</v>
+        <v>0.7060196103779638</v>
       </c>
       <c r="S41" t="n">
-        <v>0.7241766433845239</v>
+        <v>0.7066478428978429</v>
       </c>
       <c r="T41" t="n">
-        <v>0.7445346184047046</v>
+        <v>0.72206970758899</v>
       </c>
       <c r="U41" t="n">
-        <v>0.7329642258673984</v>
+        <v>0.7360964842439991</v>
       </c>
       <c r="V41" t="n">
-        <v>0.7073659964277503</v>
+        <v>0.7315388404976783</v>
       </c>
       <c r="W41" t="n">
-        <v>0.7306139835448324</v>
+        <v>0.7204744971212947</v>
       </c>
       <c r="X41" t="n">
-        <v>0.0138648003127501</v>
+        <v>0.01240266898877924</v>
       </c>
       <c r="Y41" t="n">
         <v>46</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.7002741469913</v>
+        <v>0.6588697788681112</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.6641263728611273</v>
+        <v>0.660753842228558</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.6974666003489407</v>
+        <v>0.6797170204555553</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.6782835702044007</v>
+        <v>0.6773815852763221</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.6553007426235504</v>
+        <v>0.6770327410029556</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.6790902866058637</v>
+        <v>0.6707509935663004</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.01775926100046044</v>
+        <v>0.008999122546514922</v>
       </c>
       <c r="AG41" t="n">
         <v>46</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6722222222222223</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.6731481481481482</v>
+        <v>0.6722222222222223</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.7092592592592593</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.6888888888888889</v>
+        <v>0.687962962962963</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.6638888888888889</v>
+        <v>0.687037037037037</v>
       </c>
       <c r="AM41" t="n">
-        <v>0.6887037037037038</v>
+        <v>0.6816666666666666</v>
       </c>
       <c r="AN41" t="n">
-        <v>0.01825178270790175</v>
+        <v>0.007733560376970751</v>
       </c>
       <c r="AO41" t="n">
         <v>46</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.8962229938271604</v>
+        <v>0.8929391718106996</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.884710005144033</v>
+        <v>0.8792791923868313</v>
       </c>
       <c r="AR41" t="n">
-        <v>0.8975456532921812</v>
+        <v>0.88943158436214</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.8848784722222223</v>
+        <v>0.895985725308642</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.8755838477366256</v>
+        <v>0.8835210905349795</v>
       </c>
       <c r="AU41" t="n">
-        <v>0.8877881944444445</v>
+        <v>0.8882313528806585</v>
       </c>
       <c r="AV41" t="n">
-        <v>0.008163842908045844</v>
+        <v>0.006100199264145799</v>
       </c>
       <c r="AW41" t="n">
         <v>46</v>
@@ -6720,16 +6720,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2446100234985352</v>
+        <v>0.2848782539367676</v>
       </c>
       <c r="C42" t="n">
-        <v>0.008948886061139283</v>
+        <v>0.03729291500486968</v>
       </c>
       <c r="D42" t="n">
-        <v>72.31842842102051</v>
+        <v>96.33913125991822</v>
       </c>
       <c r="E42" t="n">
-        <v>1.004621359080153</v>
+        <v>2.512526428963775</v>
       </c>
       <c r="F42" t="n">
         <v>41</v>
@@ -6746,121 +6746,121 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>0.8944444444444445</v>
+        <v>0.8935185185185185</v>
       </c>
       <c r="K42" t="n">
+        <v>0.8796296296296297</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.8768518518518519</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.9018518518518519</v>
+      </c>
+      <c r="N42" t="n">
         <v>0.8870370370370372</v>
       </c>
-      <c r="L42" t="n">
-        <v>0.8824074074074074</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.8824074074074074</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0.8972222222222221</v>
-      </c>
       <c r="O42" t="n">
-        <v>0.8887037037037038</v>
+        <v>0.8877777777777778</v>
       </c>
       <c r="P42" t="n">
-        <v>0.006125124225385614</v>
+        <v>0.009136219543365933</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
       </c>
       <c r="R42" t="n">
-        <v>0.8967748675188513</v>
+        <v>0.8950751252566641</v>
       </c>
       <c r="S42" t="n">
-        <v>0.8893967209153474</v>
+        <v>0.8836035804697705</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8873136323159004</v>
+        <v>0.8795774388446801</v>
       </c>
       <c r="U42" t="n">
-        <v>0.8834470060689573</v>
+        <v>0.9047606316243662</v>
       </c>
       <c r="V42" t="n">
-        <v>0.9040121066205434</v>
+        <v>0.8924087907666154</v>
       </c>
       <c r="W42" t="n">
-        <v>0.89218886668792</v>
+        <v>0.8910851133924194</v>
       </c>
       <c r="X42" t="n">
-        <v>0.007332182777379058</v>
+        <v>0.008866702022166374</v>
       </c>
       <c r="Y42" t="n">
         <v>1</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.894552834863128</v>
+        <v>0.893424572874942</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.8869312948260316</v>
+        <v>0.8788459083365249</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.882160548735221</v>
+        <v>0.8766809014340892</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.8818070989863367</v>
+        <v>0.9013987582747477</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.8975508400377579</v>
+        <v>0.8867420248317943</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.8886005234896951</v>
+        <v>0.8874184331504196</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.00641791855120513</v>
+        <v>0.009173478099717185</v>
       </c>
       <c r="AG42" t="n">
         <v>1</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.8944444444444445</v>
+        <v>0.8935185185185185</v>
       </c>
       <c r="AI42" t="n">
+        <v>0.8796296296296297</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.8768518518518519</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.9018518518518519</v>
+      </c>
+      <c r="AL42" t="n">
         <v>0.8870370370370371</v>
       </c>
-      <c r="AJ42" t="n">
-        <v>0.8824074074074074</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0.8824074074074074</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>0.8972222222222223</v>
-      </c>
       <c r="AM42" t="n">
-        <v>0.8887037037037038</v>
+        <v>0.8877777777777778</v>
       </c>
       <c r="AN42" t="n">
-        <v>0.00612512422538565</v>
+        <v>0.009136219543365935</v>
       </c>
       <c r="AO42" t="n">
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.9755883487654322</v>
+        <v>0.9800880915637861</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.9783307613168725</v>
+        <v>0.9762127057613169</v>
       </c>
       <c r="AR42" t="n">
-        <v>0.9760866769547324</v>
+        <v>0.972477494855967</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.9776228137860082</v>
+        <v>0.9809561471193415</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.9797614454732511</v>
+        <v>0.978545524691358</v>
       </c>
       <c r="AU42" t="n">
-        <v>0.9774780092592593</v>
+        <v>0.9776559927983539</v>
       </c>
       <c r="AV42" t="n">
-        <v>0.001514520236223371</v>
+        <v>0.003049501872319666</v>
       </c>
       <c r="AW42" t="n">
         <v>1</v>
@@ -6871,16 +6871,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2269989967346192</v>
+        <v>0.2989237785339355</v>
       </c>
       <c r="C43" t="n">
-        <v>0.007238319066501636</v>
+        <v>0.03483562275328948</v>
       </c>
       <c r="D43" t="n">
-        <v>3.586309432983398</v>
+        <v>5.262161827087402</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1027684265514274</v>
+        <v>0.3312035411705905</v>
       </c>
       <c r="F43" t="n">
         <v>41</v>
@@ -6897,121 +6897,121 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>0.8425925925925926</v>
+        <v>0.8555555555555555</v>
       </c>
       <c r="K43" t="n">
-        <v>0.8388888888888889</v>
+        <v>0.8314814814814815</v>
       </c>
       <c r="L43" t="n">
-        <v>0.8083333333333332</v>
+        <v>0.8101851851851851</v>
       </c>
       <c r="M43" t="n">
-        <v>0.8092592592592592</v>
+        <v>0.8453703703703704</v>
       </c>
       <c r="N43" t="n">
-        <v>0.8277777777777778</v>
+        <v>0.8314814814814815</v>
       </c>
       <c r="O43" t="n">
-        <v>0.8253703703703703</v>
+        <v>0.8348148148148148</v>
       </c>
       <c r="P43" t="n">
-        <v>0.01438735155522598</v>
+        <v>0.01529992782647027</v>
       </c>
       <c r="Q43" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R43" t="n">
-        <v>0.8472904886908251</v>
+        <v>0.8604329787308083</v>
       </c>
       <c r="S43" t="n">
-        <v>0.8465959059785044</v>
+        <v>0.8400590148376316</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8216602094992108</v>
+        <v>0.8164092513185194</v>
       </c>
       <c r="U43" t="n">
-        <v>0.8167807042562424</v>
+        <v>0.8546184964424762</v>
       </c>
       <c r="V43" t="n">
-        <v>0.837338435023219</v>
+        <v>0.8394873677245794</v>
       </c>
       <c r="W43" t="n">
-        <v>0.8339331486896004</v>
+        <v>0.842201421810803</v>
       </c>
       <c r="X43" t="n">
-        <v>0.01261103735217984</v>
+        <v>0.0152562476779882</v>
       </c>
       <c r="Y43" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.8433675851918564</v>
+        <v>0.855833026010731</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.8391336528667172</v>
+        <v>0.830686107987455</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.8085591089251332</v>
+        <v>0.8106773817691794</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.8089646200423731</v>
+        <v>0.8454388039127227</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.8277219010206457</v>
+        <v>0.8317197892596324</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.8255493736093451</v>
+        <v>0.8348710217879441</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.01463191256952439</v>
+        <v>0.01525686486402442</v>
       </c>
       <c r="AG43" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.8425925925925926</v>
+        <v>0.8555555555555555</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.8388888888888889</v>
+        <v>0.8314814814814815</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.8101851851851852</v>
       </c>
       <c r="AK43" t="n">
-        <v>0.8092592592592592</v>
+        <v>0.8453703703703703</v>
       </c>
       <c r="AL43" t="n">
-        <v>0.8277777777777777</v>
+        <v>0.8314814814814815</v>
       </c>
       <c r="AM43" t="n">
-        <v>0.8253703703703703</v>
+        <v>0.8348148148148148</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.01438735155522595</v>
+        <v>0.01529992782647023</v>
       </c>
       <c r="AO43" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.9559304269547325</v>
+        <v>0.9632233796296297</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.9611850565843622</v>
+        <v>0.9591698816872428</v>
       </c>
       <c r="AR43" t="n">
-        <v>0.9503626543209877</v>
+        <v>0.9504243827160495</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.9523263888888889</v>
+        <v>0.9564210390946503</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.9557143775720164</v>
+        <v>0.9503485082304527</v>
       </c>
       <c r="AU43" t="n">
-        <v>0.9551037808641976</v>
+        <v>0.9559174382716049</v>
       </c>
       <c r="AV43" t="n">
-        <v>0.003694056674348618</v>
+        <v>0.005007902200072628</v>
       </c>
       <c r="AW43" t="n">
         <v>11</v>
@@ -7022,16 +7022,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2405932903289795</v>
+        <v>0.3360867977142334</v>
       </c>
       <c r="C44" t="n">
-        <v>0.009606128756746322</v>
+        <v>0.05939891584815526</v>
       </c>
       <c r="D44" t="n">
-        <v>72.49193644523621</v>
+        <v>94.73086223602294</v>
       </c>
       <c r="E44" t="n">
-        <v>1.028584028883709</v>
+        <v>2.49924633479336</v>
       </c>
       <c r="F44" t="n">
         <v>41</v>
@@ -7048,121 +7048,121 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>0.8509259259259259</v>
+        <v>0.8342592592592593</v>
       </c>
       <c r="K44" t="n">
-        <v>0.8416666666666668</v>
+        <v>0.8055555555555555</v>
       </c>
       <c r="L44" t="n">
+        <v>0.8268518518518518</v>
+      </c>
+      <c r="M44" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="M44" t="n">
-        <v>0.8185185185185184</v>
-      </c>
       <c r="N44" t="n">
-        <v>0.813888888888889</v>
+        <v>0.8425925925925926</v>
       </c>
       <c r="O44" t="n">
-        <v>0.8316666666666667</v>
+        <v>0.8285185185185184</v>
       </c>
       <c r="P44" t="n">
-        <v>0.01387530199624384</v>
+        <v>0.01252432475474886</v>
       </c>
       <c r="Q44" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R44" t="n">
-        <v>0.8570509829361127</v>
+        <v>0.8416067378070009</v>
       </c>
       <c r="S44" t="n">
-        <v>0.8507871336332232</v>
+        <v>0.8131257386465688</v>
       </c>
       <c r="T44" t="n">
-        <v>0.8415483850334508</v>
+        <v>0.8340803008045411</v>
       </c>
       <c r="U44" t="n">
-        <v>0.8249033337772333</v>
+        <v>0.8470414997317012</v>
       </c>
       <c r="V44" t="n">
-        <v>0.8299703451590262</v>
+        <v>0.8518969119311247</v>
       </c>
       <c r="W44" t="n">
-        <v>0.8408520361078093</v>
+        <v>0.8375502377841872</v>
       </c>
       <c r="X44" t="n">
-        <v>0.01211915217287146</v>
+        <v>0.01357175689169282</v>
       </c>
       <c r="Y44" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.8513415596090206</v>
+        <v>0.8342306056668503</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.8413385543463369</v>
+        <v>0.8036918401776564</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.8323083908035076</v>
+        <v>0.8260294883565669</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.8172902135037803</v>
+        <v>0.8318557119197122</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.812777862195294</v>
+        <v>0.8426686507066096</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.831011316091588</v>
+        <v>0.8276952593654791</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.01443870182163328</v>
+        <v>0.01313896107574704</v>
       </c>
       <c r="AG44" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.850925925925926</v>
+        <v>0.8342592592592593</v>
       </c>
       <c r="AI44" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="AJ44" t="n">
+        <v>0.8268518518518518</v>
+      </c>
+      <c r="AK44" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="AK44" t="n">
-        <v>0.8185185185185185</v>
-      </c>
       <c r="AL44" t="n">
-        <v>0.8138888888888889</v>
+        <v>0.8425925925925926</v>
       </c>
       <c r="AM44" t="n">
-        <v>0.8316666666666667</v>
+        <v>0.8285185185185184</v>
       </c>
       <c r="AN44" t="n">
-        <v>0.01387530199624386</v>
+        <v>0.01252432475474881</v>
       </c>
       <c r="AO44" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.9582336676954734</v>
+        <v>0.9586033950617283</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.9604803240740741</v>
+        <v>0.9514197530864198</v>
       </c>
       <c r="AR44" t="n">
-        <v>0.9585847479423869</v>
+        <v>0.9564152520576132</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.9547100051440328</v>
+        <v>0.9660069444444445</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.9544077932098766</v>
+        <v>0.9623212448559672</v>
       </c>
       <c r="AU44" t="n">
-        <v>0.9572833076131687</v>
+        <v>0.9589533179012346</v>
       </c>
       <c r="AV44" t="n">
-        <v>0.002354073667031488</v>
+        <v>0.004988294346220357</v>
       </c>
       <c r="AW44" t="n">
         <v>6</v>
@@ -7173,16 +7173,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.2378963470458984</v>
+        <v>0.315858793258667</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01722750720490185</v>
+        <v>0.05820098138098385</v>
       </c>
       <c r="D45" t="n">
-        <v>3.540024662017822</v>
+        <v>5.471997928619385</v>
       </c>
       <c r="E45" t="n">
-        <v>0.04551307640777828</v>
+        <v>0.2424622805045106</v>
       </c>
       <c r="F45" t="n">
         <v>41</v>
@@ -7199,121 +7199,121 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>0.762037037037037</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7444444444444445</v>
+        <v>0.737962962962963</v>
       </c>
       <c r="L45" t="n">
-        <v>0.7435185185185186</v>
+        <v>0.7509259259259259</v>
       </c>
       <c r="M45" t="n">
-        <v>0.7518518518518519</v>
+        <v>0.7481481481481481</v>
       </c>
       <c r="N45" t="n">
-        <v>0.7287037037037037</v>
+        <v>0.7314814814814815</v>
       </c>
       <c r="O45" t="n">
-        <v>0.7461111111111112</v>
+        <v>0.7442592592592592</v>
       </c>
       <c r="P45" t="n">
-        <v>0.01094630867120859</v>
+        <v>0.008185939298259354</v>
       </c>
       <c r="Q45" t="n">
         <v>31</v>
       </c>
       <c r="R45" t="n">
-        <v>0.7825453640049845</v>
+        <v>0.7687888023019269</v>
       </c>
       <c r="S45" t="n">
-        <v>0.7692753681174658</v>
+        <v>0.7572826203652193</v>
       </c>
       <c r="T45" t="n">
-        <v>0.7620166300821776</v>
+        <v>0.7650525913237778</v>
       </c>
       <c r="U45" t="n">
-        <v>0.7705232695487835</v>
+        <v>0.7704526474063957</v>
       </c>
       <c r="V45" t="n">
-        <v>0.7474765515962482</v>
+        <v>0.7529529862105</v>
       </c>
       <c r="W45" t="n">
-        <v>0.7663674366699319</v>
+        <v>0.7629059295215639</v>
       </c>
       <c r="X45" t="n">
-        <v>0.01151735561585139</v>
+        <v>0.006735755136543216</v>
       </c>
       <c r="Y45" t="n">
         <v>31</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.7633273994304197</v>
+        <v>0.7507554315283019</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.7420741652909778</v>
+        <v>0.7358851146922948</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.7406768257514527</v>
+        <v>0.7493834521034647</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.7502579935230796</v>
+        <v>0.746070510656188</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.7266585952167887</v>
+        <v>0.729482433116913</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.7445989958425437</v>
+        <v>0.7423153884194325</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.01205316155910008</v>
+        <v>0.008262275194357382</v>
       </c>
       <c r="AG45" t="n">
         <v>26</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.7620370370370371</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="AI45" t="n">
-        <v>0.7444444444444445</v>
+        <v>0.7379629629629629</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0.7435185185185185</v>
+        <v>0.7509259259259259</v>
       </c>
       <c r="AK45" t="n">
-        <v>0.7518518518518519</v>
+        <v>0.7481481481481481</v>
       </c>
       <c r="AL45" t="n">
-        <v>0.7287037037037037</v>
+        <v>0.7314814814814815</v>
       </c>
       <c r="AM45" t="n">
-        <v>0.7461111111111112</v>
+        <v>0.7442592592592592</v>
       </c>
       <c r="AN45" t="n">
-        <v>0.01094630867120863</v>
+        <v>0.008185939298259372</v>
       </c>
       <c r="AO45" t="n">
         <v>31</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.9230484825102879</v>
+        <v>0.9262770061728395</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.9270318930041151</v>
+        <v>0.9178575102880658</v>
       </c>
       <c r="AR45" t="n">
-        <v>0.9179809670781892</v>
+        <v>0.9187506430041151</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.9172935956790124</v>
+        <v>0.9247022890946504</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.9140412808641974</v>
+        <v>0.918966049382716</v>
       </c>
       <c r="AU45" t="n">
-        <v>0.9198792438271605</v>
+        <v>0.9213106995884773</v>
       </c>
       <c r="AV45" t="n">
-        <v>0.004595112764619743</v>
+        <v>0.003468223496698309</v>
       </c>
       <c r="AW45" t="n">
         <v>31</v>
@@ -7324,16 +7324,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2463385105133057</v>
+        <v>0.326137924194336</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01766641963841991</v>
+        <v>0.06682752917630673</v>
       </c>
       <c r="D46" t="n">
-        <v>72.27255520820617</v>
+        <v>91.49582467079162</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7620639359380234</v>
+        <v>0.6684902725321346</v>
       </c>
       <c r="F46" t="n">
         <v>41</v>
@@ -7350,121 +7350,121 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>0.7981481481481482</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="K46" t="n">
+        <v>0.7666666666666666</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.8009259259259259</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="N46" t="n">
         <v>0.7925925925925926</v>
       </c>
-      <c r="L46" t="n">
-        <v>0.8037037037037038</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.7777777777777777</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0.7703703703703703</v>
-      </c>
       <c r="O46" t="n">
-        <v>0.7885185185185185</v>
+        <v>0.7903703703703704</v>
       </c>
       <c r="P46" t="n">
-        <v>0.01252706261132435</v>
+        <v>0.01243087884950995</v>
       </c>
       <c r="Q46" t="n">
         <v>16</v>
       </c>
       <c r="R46" t="n">
-        <v>0.8089349338258923</v>
+        <v>0.8133160953905397</v>
       </c>
       <c r="S46" t="n">
-        <v>0.809135238694875</v>
+        <v>0.7817227046102883</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8134620504596292</v>
+        <v>0.81644293537923</v>
       </c>
       <c r="U46" t="n">
-        <v>0.7934970884754078</v>
+        <v>0.8121742112482853</v>
       </c>
       <c r="V46" t="n">
-        <v>0.7899103228151479</v>
+        <v>0.8064613421963275</v>
       </c>
       <c r="W46" t="n">
-        <v>0.8029879268541904</v>
+        <v>0.8060234577649341</v>
       </c>
       <c r="X46" t="n">
-        <v>0.009422986157521985</v>
+        <v>0.01257217715723458</v>
       </c>
       <c r="Y46" t="n">
         <v>16</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.7968394030681397</v>
+        <v>0.7988367912950073</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.7912515786871811</v>
+        <v>0.7626821671340634</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.8020169177952697</v>
+        <v>0.7996737775046751</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.7731601810024422</v>
+        <v>0.7887895637676147</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.7669347252646052</v>
+        <v>0.7910452227263708</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.7860405611635276</v>
+        <v>0.7882055044855463</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.01363782108570043</v>
+        <v>0.01344909974500998</v>
       </c>
       <c r="AG46" t="n">
         <v>16</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.7981481481481482</v>
+        <v>0.8</v>
       </c>
       <c r="AI46" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0.8009259259259259</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="AL46" t="n">
         <v>0.7925925925925926</v>
       </c>
-      <c r="AJ46" t="n">
-        <v>0.8037037037037037</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>0.7703703703703704</v>
-      </c>
       <c r="AM46" t="n">
-        <v>0.7885185185185184</v>
+        <v>0.7903703703703704</v>
       </c>
       <c r="AN46" t="n">
-        <v>0.01252706261132427</v>
+        <v>0.01243087884950992</v>
       </c>
       <c r="AO46" t="n">
         <v>16</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.9458802726337447</v>
+        <v>0.9440586419753085</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.942306455761317</v>
+        <v>0.9343634259259259</v>
       </c>
       <c r="AR46" t="n">
-        <v>0.9456230709876543</v>
+        <v>0.9431764403292182</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.9426170267489713</v>
+        <v>0.9524710648148148</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.9373849022633746</v>
+        <v>0.9458584104938271</v>
       </c>
       <c r="AU46" t="n">
-        <v>0.9427623456790124</v>
+        <v>0.943985596707819</v>
       </c>
       <c r="AV46" t="n">
-        <v>0.003067607167921673</v>
+        <v>0.005809592768584644</v>
       </c>
       <c r="AW46" t="n">
         <v>16</v>
@@ -7475,16 +7475,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2512683391571045</v>
+        <v>0.3534369945526123</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0190226978469596</v>
+        <v>0.05594228440907832</v>
       </c>
       <c r="D47" t="n">
-        <v>3.680407238006592</v>
+        <v>5.15079026222229</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08216196300788849</v>
+        <v>0.2893342320528922</v>
       </c>
       <c r="F47" t="n">
         <v>41</v>
@@ -7501,121 +7501,121 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>0.7277777777777779</v>
+        <v>0.7240740740740742</v>
       </c>
       <c r="K47" t="n">
-        <v>0.7185185185185184</v>
+        <v>0.7046296296296296</v>
       </c>
       <c r="L47" t="n">
-        <v>0.7185185185185184</v>
+        <v>0.7388888888888889</v>
       </c>
       <c r="M47" t="n">
-        <v>0.7314814814814814</v>
+        <v>0.7268518518518517</v>
       </c>
       <c r="N47" t="n">
-        <v>0.7138888888888889</v>
+        <v>0.7175925925925926</v>
       </c>
       <c r="O47" t="n">
-        <v>0.722037037037037</v>
+        <v>0.7224074074074074</v>
       </c>
       <c r="P47" t="n">
-        <v>0.006531552625388297</v>
+        <v>0.0112552380733502</v>
       </c>
       <c r="Q47" t="n">
         <v>36</v>
       </c>
       <c r="R47" t="n">
-        <v>0.7582029989053084</v>
+        <v>0.7485581699108922</v>
       </c>
       <c r="S47" t="n">
-        <v>0.7434540866031637</v>
+        <v>0.7329537810068051</v>
       </c>
       <c r="T47" t="n">
-        <v>0.7490851044467631</v>
+        <v>0.7557894933010223</v>
       </c>
       <c r="U47" t="n">
-        <v>0.7569774104249642</v>
+        <v>0.755348453467933</v>
       </c>
       <c r="V47" t="n">
-        <v>0.7393727805494433</v>
+        <v>0.7477794831586778</v>
       </c>
       <c r="W47" t="n">
-        <v>0.7494184761859286</v>
+        <v>0.7480858761690661</v>
       </c>
       <c r="X47" t="n">
-        <v>0.007360793528821919</v>
+        <v>0.008263025934763754</v>
       </c>
       <c r="Y47" t="n">
         <v>36</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.7265445862978229</v>
+        <v>0.7196912301723765</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.7124398278350669</v>
+        <v>0.6994449234088074</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.7140328733648952</v>
+        <v>0.7362755996176639</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.7246188866277966</v>
+        <v>0.7197379207328581</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.7088721331269549</v>
+        <v>0.7121016962205182</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.7173016614505072</v>
+        <v>0.7174502740304448</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.006990748077834308</v>
+        <v>0.01197871471341451</v>
       </c>
       <c r="AG47" t="n">
         <v>36</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.7277777777777777</v>
+        <v>0.7240740740740741</v>
       </c>
       <c r="AI47" t="n">
-        <v>0.7185185185185186</v>
+        <v>0.7046296296296296</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0.7185185185185186</v>
+        <v>0.7388888888888889</v>
       </c>
       <c r="AK47" t="n">
-        <v>0.7314814814814815</v>
+        <v>0.7268518518518519</v>
       </c>
       <c r="AL47" t="n">
-        <v>0.7138888888888889</v>
+        <v>0.7175925925925926</v>
       </c>
       <c r="AM47" t="n">
-        <v>0.722037037037037</v>
+        <v>0.7224074074074075</v>
       </c>
       <c r="AN47" t="n">
-        <v>0.006531552625388286</v>
+        <v>0.0112552380733502</v>
       </c>
       <c r="AO47" t="n">
         <v>36</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.9092734053497943</v>
+        <v>0.9104668209876543</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.9085931069958848</v>
+        <v>0.8952096193415637</v>
       </c>
       <c r="AR47" t="n">
-        <v>0.9042496141975308</v>
+        <v>0.9063168724279835</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.9045743312757203</v>
+        <v>0.9114493312757203</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.8967959104938271</v>
+        <v>0.9041087962962964</v>
       </c>
       <c r="AU47" t="n">
-        <v>0.9046972736625515</v>
+        <v>0.9055102880658437</v>
       </c>
       <c r="AV47" t="n">
-        <v>0.004444447149675085</v>
+        <v>0.005806168900996423</v>
       </c>
       <c r="AW47" t="n">
         <v>36</v>
@@ -7626,16 +7626,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2390082836151123</v>
+        <v>0.311643648147583</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01292838757748112</v>
+        <v>0.05630650025440262</v>
       </c>
       <c r="D48" t="n">
-        <v>71.9714081287384</v>
+        <v>90.5133348941803</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8686570076358053</v>
+        <v>1.815929258719779</v>
       </c>
       <c r="F48" t="n">
         <v>41</v>
@@ -7652,121 +7652,121 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>0.7907407407407407</v>
+        <v>0.7787037037037038</v>
       </c>
       <c r="K48" t="n">
-        <v>0.7574074074074074</v>
+        <v>0.736111111111111</v>
       </c>
       <c r="L48" t="n">
-        <v>0.7749999999999999</v>
+        <v>0.7787037037037036</v>
       </c>
       <c r="M48" t="n">
-        <v>0.7537037037037037</v>
+        <v>0.7824074074074074</v>
       </c>
       <c r="N48" t="n">
-        <v>0.7611111111111111</v>
+        <v>0.7601851851851852</v>
       </c>
       <c r="O48" t="n">
-        <v>0.7675925925925926</v>
+        <v>0.7672222222222222</v>
       </c>
       <c r="P48" t="n">
-        <v>0.01363345356985627</v>
+        <v>0.01738769569526743</v>
       </c>
       <c r="Q48" t="n">
         <v>21</v>
       </c>
       <c r="R48" t="n">
-        <v>0.8048833684358945</v>
+        <v>0.7963694779116466</v>
       </c>
       <c r="S48" t="n">
-        <v>0.7812398294156226</v>
+        <v>0.7493297903153016</v>
       </c>
       <c r="T48" t="n">
-        <v>0.7905059286895711</v>
+        <v>0.7976825262479093</v>
       </c>
       <c r="U48" t="n">
-        <v>0.7714315125395194</v>
+        <v>0.8016339869281045</v>
       </c>
       <c r="V48" t="n">
-        <v>0.7863795736227243</v>
+        <v>0.7808634142596441</v>
       </c>
       <c r="W48" t="n">
-        <v>0.7868880425406664</v>
+        <v>0.7851758391325212</v>
       </c>
       <c r="X48" t="n">
-        <v>0.01102711227914807</v>
+        <v>0.01926718258942765</v>
       </c>
       <c r="Y48" t="n">
         <v>21</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.7883481556377241</v>
+        <v>0.7764921558258417</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.7554519671212621</v>
+        <v>0.7315659404680925</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.7714927592161777</v>
+        <v>0.7744737442882</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.7481664061579375</v>
+        <v>0.7784627525252525</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.7564103633383561</v>
+        <v>0.7561769336627503</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.7639739302942915</v>
+        <v>0.7634343053540273</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.01435510271777827</v>
+        <v>0.01781287747486256</v>
       </c>
       <c r="AG48" t="n">
         <v>21</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.7907407407407407</v>
+        <v>0.7787037037037037</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.7574074074074074</v>
+        <v>0.7361111111111112</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0.775</v>
+        <v>0.7787037037037037</v>
       </c>
       <c r="AK48" t="n">
-        <v>0.7537037037037037</v>
+        <v>0.7824074074074074</v>
       </c>
       <c r="AL48" t="n">
-        <v>0.7611111111111111</v>
+        <v>0.7601851851851852</v>
       </c>
       <c r="AM48" t="n">
-        <v>0.7675925925925926</v>
+        <v>0.7672222222222222</v>
       </c>
       <c r="AN48" t="n">
-        <v>0.01363345356985628</v>
+        <v>0.01738769569526739</v>
       </c>
       <c r="AO48" t="n">
         <v>21</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.937854938271605</v>
+        <v>0.9362660751028806</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.9316685956790124</v>
+        <v>0.9211863425925926</v>
       </c>
       <c r="AR48" t="n">
-        <v>0.9371707818930042</v>
+        <v>0.9360776748971192</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.929571116255144</v>
+        <v>0.9425758744855969</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.9304417438271604</v>
+        <v>0.9338445216049384</v>
       </c>
       <c r="AU48" t="n">
-        <v>0.9333414351851852</v>
+        <v>0.9339900977366256</v>
       </c>
       <c r="AV48" t="n">
-        <v>0.003477283800303015</v>
+        <v>0.007031514089502555</v>
       </c>
       <c r="AW48" t="n">
         <v>21</v>
@@ -7777,16 +7777,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.236201286315918</v>
+        <v>0.3209860801696777</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01225576760172174</v>
+        <v>0.03240406404199829</v>
       </c>
       <c r="D49" t="n">
-        <v>3.610271883010864</v>
+        <v>5.280908060073853</v>
       </c>
       <c r="E49" t="n">
-        <v>0.05676212382213161</v>
+        <v>0.1271114946112205</v>
       </c>
       <c r="F49" t="n">
         <v>41</v>
@@ -7803,121 +7803,121 @@
         </is>
       </c>
       <c r="J49" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.6833333333333335</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.7185185185185184</v>
+      </c>
+      <c r="M49" t="n">
         <v>0.7129629629629629</v>
       </c>
-      <c r="K49" t="n">
-        <v>0.6888888888888888</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.7157407407407407</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.7037037037037037</v>
-      </c>
       <c r="N49" t="n">
-        <v>0.6833333333333332</v>
+        <v>0.6981481481481481</v>
       </c>
       <c r="O49" t="n">
-        <v>0.7009259259259258</v>
+        <v>0.7025925925925927</v>
       </c>
       <c r="P49" t="n">
-        <v>0.01285670737608134</v>
+        <v>0.01231725122097467</v>
       </c>
       <c r="Q49" t="n">
         <v>41</v>
       </c>
       <c r="R49" t="n">
-        <v>0.7516752085717603</v>
+        <v>0.7261500559061534</v>
       </c>
       <c r="S49" t="n">
-        <v>0.7269602773308819</v>
+        <v>0.7178436628724763</v>
       </c>
       <c r="T49" t="n">
-        <v>0.7508839735541143</v>
+        <v>0.7480445258136795</v>
       </c>
       <c r="U49" t="n">
-        <v>0.7385433118278844</v>
+        <v>0.7541955354267255</v>
       </c>
       <c r="V49" t="n">
-        <v>0.7187312367228685</v>
+        <v>0.7381730118959465</v>
       </c>
       <c r="W49" t="n">
-        <v>0.7373588016015018</v>
+        <v>0.7368813583829963</v>
       </c>
       <c r="X49" t="n">
-        <v>0.01299544789283209</v>
+        <v>0.01344366100275777</v>
       </c>
       <c r="Y49" t="n">
         <v>41</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.7071587900292569</v>
+        <v>0.6903447891450311</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.6810202267170483</v>
+        <v>0.6725570457762785</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.7040426854814537</v>
+        <v>0.7117676893296698</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.6954025759305543</v>
+        <v>0.7026479249889722</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.6758822835680568</v>
+        <v>0.6888953993875044</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.692701312345274</v>
+        <v>0.6932425697254913</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.01236341151152773</v>
+        <v>0.01331785784031973</v>
       </c>
       <c r="AG49" t="n">
         <v>41</v>
       </c>
       <c r="AH49" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0.6833333333333333</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0.7185185185185186</v>
+      </c>
+      <c r="AK49" t="n">
         <v>0.7129629629629629</v>
       </c>
-      <c r="AI49" t="n">
-        <v>0.6888888888888889</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>0.7157407407407408</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>0.7037037037037037</v>
-      </c>
       <c r="AL49" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6981481481481482</v>
       </c>
       <c r="AM49" t="n">
-        <v>0.700925925925926</v>
+        <v>0.7025925925925927</v>
       </c>
       <c r="AN49" t="n">
-        <v>0.01285670737608132</v>
+        <v>0.01231725122097473</v>
       </c>
       <c r="AO49" t="n">
         <v>41</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.903047839506173</v>
+        <v>0.9026613940329219</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.8925495113168723</v>
+        <v>0.8887088477366255</v>
       </c>
       <c r="AR49" t="n">
-        <v>0.9016467335390946</v>
+        <v>0.899343492798354</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.8966512345679013</v>
+        <v>0.9009979423868312</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.8823270318930042</v>
+        <v>0.8929539609053498</v>
       </c>
       <c r="AU49" t="n">
-        <v>0.8952444701646091</v>
+        <v>0.8969331275720165</v>
       </c>
       <c r="AV49" t="n">
-        <v>0.007456320140326931</v>
+        <v>0.005265323595414389</v>
       </c>
       <c r="AW49" t="n">
         <v>41</v>
@@ -7928,16 +7928,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.2343996524810791</v>
+        <v>0.3507573127746582</v>
       </c>
       <c r="C50" t="n">
-        <v>0.004127878436491307</v>
+        <v>0.04990153552404594</v>
       </c>
       <c r="D50" t="n">
-        <v>62.11996674537659</v>
+        <v>73.42973532676697</v>
       </c>
       <c r="E50" t="n">
-        <v>5.918629696028927</v>
+        <v>8.18482393900036</v>
       </c>
       <c r="F50" t="n">
         <v>41</v>
@@ -7954,121 +7954,121 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>0.762037037037037</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="K50" t="n">
-        <v>0.7277777777777779</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L50" t="n">
-        <v>0.773148148148148</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="M50" t="n">
-        <v>0.7324074074074075</v>
+        <v>0.762962962962963</v>
       </c>
       <c r="N50" t="n">
-        <v>0.7435185185185186</v>
+        <v>0.75</v>
       </c>
       <c r="O50" t="n">
-        <v>0.7477777777777778</v>
+        <v>0.745925925925926</v>
       </c>
       <c r="P50" t="n">
-        <v>0.01732842602265115</v>
+        <v>0.01366611461295933</v>
       </c>
       <c r="Q50" t="n">
         <v>26</v>
       </c>
       <c r="R50" t="n">
-        <v>0.7813981618937653</v>
+        <v>0.7774139119599887</v>
       </c>
       <c r="S50" t="n">
-        <v>0.7547027678141663</v>
+        <v>0.7399304975917419</v>
       </c>
       <c r="T50" t="n">
-        <v>0.793337196624481</v>
+        <v>0.7654061942453406</v>
       </c>
       <c r="U50" t="n">
-        <v>0.7546655359391462</v>
+        <v>0.7933287735640276</v>
       </c>
       <c r="V50" t="n">
-        <v>0.7769187125113209</v>
+        <v>0.7725480931689576</v>
       </c>
       <c r="W50" t="n">
-        <v>0.772204474956576</v>
+        <v>0.7697254941060112</v>
       </c>
       <c r="X50" t="n">
-        <v>0.01527916211754132</v>
+        <v>0.01749623847752673</v>
       </c>
       <c r="Y50" t="n">
         <v>26</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.759299236911177</v>
+        <v>0.7486513108300558</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.7243585156992781</v>
+        <v>0.7137361177973943</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.7690142738754749</v>
+        <v>0.7371380319453938</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.7252018565068122</v>
+        <v>0.7567353276104694</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.7388562225267753</v>
+        <v>0.7445360116441092</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.7433460211039036</v>
+        <v>0.7401593599654845</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.0180180945530815</v>
+        <v>0.01465160170389852</v>
       </c>
       <c r="AG50" t="n">
         <v>31</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.7620370370370371</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="AI50" t="n">
-        <v>0.7277777777777777</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0.7731481481481481</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="AK50" t="n">
-        <v>0.7324074074074074</v>
+        <v>0.762962962962963</v>
       </c>
       <c r="AL50" t="n">
-        <v>0.7435185185185185</v>
+        <v>0.75</v>
       </c>
       <c r="AM50" t="n">
-        <v>0.7477777777777778</v>
+        <v>0.745925925925926</v>
       </c>
       <c r="AN50" t="n">
-        <v>0.01732842602265125</v>
+        <v>0.01366611461295933</v>
       </c>
       <c r="AO50" t="n">
         <v>26</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.9274697788065843</v>
+        <v>0.9304963991769547</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.9222993827160494</v>
+        <v>0.9120248199588478</v>
       </c>
       <c r="AR50" t="n">
-        <v>0.9290689300411522</v>
+        <v>0.9265354938271605</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.9215052726337448</v>
+        <v>0.9313271604938271</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.920889274691358</v>
+        <v>0.9264737654320987</v>
       </c>
       <c r="AU50" t="n">
-        <v>0.9242465277777777</v>
+        <v>0.9253715277777778</v>
       </c>
       <c r="AV50" t="n">
-        <v>0.003353264460995498</v>
+        <v>0.006963307006317976</v>
       </c>
       <c r="AW50" t="n">
         <v>26</v>
@@ -8079,16 +8079,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.2466717720031738</v>
+        <v>0.3182677745819092</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01679031907908059</v>
+        <v>0.04471569332170893</v>
       </c>
       <c r="D51" t="n">
-        <v>3.717396402359009</v>
+        <v>5.035491132736206</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1423257993122155</v>
+        <v>0.3693392418781368</v>
       </c>
       <c r="F51" t="n">
         <v>41</v>
@@ -8105,121 +8105,121 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6722222222222222</v>
       </c>
       <c r="K51" t="n">
-        <v>0.6731481481481482</v>
+        <v>0.6722222222222222</v>
       </c>
       <c r="L51" t="n">
-        <v>0.7092592592592593</v>
+        <v>0.688888888888889</v>
       </c>
       <c r="M51" t="n">
-        <v>0.688888888888889</v>
+        <v>0.687962962962963</v>
       </c>
       <c r="N51" t="n">
-        <v>0.6638888888888889</v>
+        <v>0.6870370370370371</v>
       </c>
       <c r="O51" t="n">
-        <v>0.6887037037037038</v>
+        <v>0.6816666666666666</v>
       </c>
       <c r="P51" t="n">
-        <v>0.01825178270790175</v>
+        <v>0.007733560376970842</v>
       </c>
       <c r="Q51" t="n">
         <v>46</v>
       </c>
       <c r="R51" t="n">
-        <v>0.744028433639785</v>
+        <v>0.7060196103779638</v>
       </c>
       <c r="S51" t="n">
-        <v>0.7241766433845239</v>
+        <v>0.7066478428978429</v>
       </c>
       <c r="T51" t="n">
-        <v>0.7445346184047046</v>
+        <v>0.72206970758899</v>
       </c>
       <c r="U51" t="n">
-        <v>0.7329642258673984</v>
+        <v>0.7360964842439991</v>
       </c>
       <c r="V51" t="n">
-        <v>0.7073659964277503</v>
+        <v>0.7315388404976783</v>
       </c>
       <c r="W51" t="n">
-        <v>0.7306139835448324</v>
+        <v>0.7204744971212947</v>
       </c>
       <c r="X51" t="n">
-        <v>0.0138648003127501</v>
+        <v>0.01240266898877924</v>
       </c>
       <c r="Y51" t="n">
         <v>46</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.7002741469913</v>
+        <v>0.6588697788681112</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.6641263728611273</v>
+        <v>0.660753842228558</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.6974666003489407</v>
+        <v>0.6797170204555553</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.6782835702044007</v>
+        <v>0.6773815852763221</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.6553007426235504</v>
+        <v>0.6770327410029556</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.6790902866058637</v>
+        <v>0.6707509935663004</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.01775926100046044</v>
+        <v>0.008999122546514922</v>
       </c>
       <c r="AG51" t="n">
         <v>46</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6722222222222223</v>
       </c>
       <c r="AI51" t="n">
-        <v>0.6731481481481482</v>
+        <v>0.6722222222222223</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0.7092592592592593</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="AK51" t="n">
-        <v>0.6888888888888889</v>
+        <v>0.687962962962963</v>
       </c>
       <c r="AL51" t="n">
-        <v>0.6638888888888889</v>
+        <v>0.687037037037037</v>
       </c>
       <c r="AM51" t="n">
-        <v>0.6887037037037038</v>
+        <v>0.6816666666666666</v>
       </c>
       <c r="AN51" t="n">
-        <v>0.01825178270790175</v>
+        <v>0.007733560376970751</v>
       </c>
       <c r="AO51" t="n">
         <v>46</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.8962229938271604</v>
+        <v>0.8929391718106996</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.884710005144033</v>
+        <v>0.8792791923868313</v>
       </c>
       <c r="AR51" t="n">
-        <v>0.8975456532921812</v>
+        <v>0.88943158436214</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.8848784722222223</v>
+        <v>0.895985725308642</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.8755838477366256</v>
+        <v>0.8835210905349795</v>
       </c>
       <c r="AU51" t="n">
-        <v>0.8877881944444445</v>
+        <v>0.8882313528806585</v>
       </c>
       <c r="AV51" t="n">
-        <v>0.008163842908045844</v>
+        <v>0.006100199264145799</v>
       </c>
       <c r="AW51" t="n">
         <v>46</v>
